--- a/files/3irc.xlsx
+++ b/files/3irc.xlsx
@@ -19,11 +19,445 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>mireille.blanc</author>
     <author>francoise.perrin</author>
-    <author>mireille.blanc</author>
   </authors>
   <commentList>
-    <comment ref="M38" authorId="0">
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FP+MB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TL+MB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TL+FP&amp;TL+MB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Groupe 1 : salle G102
+Groupe 2 : salle F002/003</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+G105(Haulotte à Verot) - G108(Audigier à Grandhomme)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MELB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Groupe 1 : salle G102
+Groupe 2 : salle F003/004</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+P. Bouron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bertrand CINTRACT </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MELB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mireille.blanc:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>P. Bouron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+OSPF - TA+MELB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Redis Routes : TA+MELB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mireille.blanc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+VLAN : TA+MELB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M38" authorId="1">
       <text>
         <r>
           <rPr>
@@ -47,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y38" authorId="1">
+    <comment ref="Y38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0">
+    <comment ref="J39" authorId="1">
       <text>
         <r>
           <rPr>
@@ -95,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T45" authorId="1">
+    <comment ref="T45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="1">
+    <comment ref="E54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="1">
+    <comment ref="F54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J54" authorId="1">
+    <comment ref="J54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T54" authorId="1">
+    <comment ref="T54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O55" authorId="1">
+    <comment ref="O55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="1">
+    <comment ref="E61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J61" authorId="1">
+    <comment ref="J61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J65" authorId="1">
+    <comment ref="J65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="1">
+    <comment ref="E72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J72" authorId="1">
+    <comment ref="J72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +793,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R72" authorId="1">
+    <comment ref="R72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H73" authorId="1">
+    <comment ref="H73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T73" authorId="1">
+    <comment ref="T73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="1">
+    <comment ref="E78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H78" authorId="1">
+    <comment ref="H78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +913,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I78" authorId="1">
+    <comment ref="I78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +937,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J78" authorId="1">
+    <comment ref="J78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O78" authorId="1">
+    <comment ref="O78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T78" authorId="1">
+    <comment ref="T78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J79" authorId="1">
+    <comment ref="J79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T79" authorId="1">
+    <comment ref="T79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -623,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E83" authorId="1">
+    <comment ref="E83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -647,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H83" authorId="1">
+    <comment ref="H83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -671,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J83" authorId="1">
+    <comment ref="J83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O83" authorId="1">
+    <comment ref="O83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E87" authorId="1">
+    <comment ref="E87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F87" authorId="1">
+    <comment ref="F87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -767,7 +1201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H87" authorId="1">
+    <comment ref="H87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -791,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J87" authorId="1">
+    <comment ref="J87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -815,7 +1249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O87" authorId="1">
+    <comment ref="O87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -839,7 +1273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T87" authorId="1">
+    <comment ref="T87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -863,7 +1297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H88" authorId="1">
+    <comment ref="H88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -887,7 +1321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J88" authorId="1">
+    <comment ref="J88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -911,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M92" authorId="1">
+    <comment ref="M92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -935,7 +1369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R92" authorId="1">
+    <comment ref="R92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -959,7 +1393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W92" authorId="1">
+    <comment ref="W92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -983,7 +1417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M93" authorId="1">
+    <comment ref="M93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1007,7 +1441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R93" authorId="1">
+    <comment ref="R93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W93" authorId="1">
+    <comment ref="W93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1055,7 +1489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C96" authorId="1">
+    <comment ref="C96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1079,7 +1513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H96" authorId="1">
+    <comment ref="H96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1103,7 +1537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M96" authorId="1">
+    <comment ref="M96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1127,7 +1561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y96" authorId="1">
+    <comment ref="Y96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="1">
+    <comment ref="C97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H97" authorId="1">
+    <comment ref="H97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M97" authorId="1">
+    <comment ref="M97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="180">
   <si>
     <t>LUNDI</t>
   </si>
@@ -1392,24 +1826,12 @@
     <t>Méthodes Numériques</t>
   </si>
   <si>
-    <t>Algèbre linéaire</t>
-  </si>
-  <si>
     <t>Analyse</t>
   </si>
   <si>
-    <t>Bases Elec.</t>
-  </si>
-  <si>
     <t>Bilan académique</t>
   </si>
   <si>
-    <t>Intro Res</t>
-  </si>
-  <si>
-    <t>Archi 1</t>
-  </si>
-  <si>
     <t>Algèbre Linéaire</t>
   </si>
   <si>
@@ -1464,9 +1886,6 @@
     <t>Bibliotheque</t>
   </si>
   <si>
-    <t>Intro Prog</t>
-  </si>
-  <si>
     <t>T. Asfour, N. Lebedev, ?</t>
   </si>
   <si>
@@ -1560,12 +1979,6 @@
     <t>? *</t>
   </si>
   <si>
-    <t xml:space="preserve">TP réseaux : </t>
-  </si>
-  <si>
-    <t>TP Info :</t>
-  </si>
-  <si>
     <t xml:space="preserve">Révisions : </t>
   </si>
   <si>
@@ -1575,9 +1988,6 @@
     <t>archi / anglais / CGR :</t>
   </si>
   <si>
-    <t xml:space="preserve">Architecture des ordinateurs : </t>
-  </si>
-  <si>
     <t xml:space="preserve">TP Archi : </t>
   </si>
   <si>
@@ -1651,9 +2061,6 @@
   </si>
   <si>
     <t>Travail tuteuré ou en autonomie ou révisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD Archi : </t>
   </si>
   <si>
     <t>TD :</t>
@@ -1682,9 +2089,6 @@
   </si>
   <si>
     <t>Présentation</t>
-  </si>
-  <si>
-    <t>Double ligne :  promotion complète = 60 élèves</t>
   </si>
   <si>
     <t>FCE Blanc : G102</t>
@@ -1719,12 +2123,6 @@
     <t xml:space="preserve">TP Méth. Num. : </t>
   </si>
   <si>
-    <t>Bases Elec. :</t>
-  </si>
-  <si>
-    <t>Algèbre linéaire :</t>
-  </si>
-  <si>
     <t>Analyse :</t>
   </si>
   <si>
@@ -1734,9 +2132,6 @@
     <t xml:space="preserve"> 8h30-12h15 &amp; 13h30-17h00 MIME : G102</t>
   </si>
   <si>
-    <t>1ère ligne :  groupe 1 ou A = 30 élèves</t>
-  </si>
-  <si>
     <t>2ème ligne :  groupe 2 ou B = 30 élèves</t>
   </si>
   <si>
@@ -1755,9 +2150,6 @@
     <t>TP Méth. Num. : A-209</t>
   </si>
   <si>
-    <t xml:space="preserve">Algèbre lin. : </t>
-  </si>
-  <si>
     <t>TP Méth. Num. : G105</t>
   </si>
   <si>
@@ -1770,10 +2162,58 @@
     <t xml:space="preserve"> MIME : F005</t>
   </si>
   <si>
-    <t>TP/Projet info : C325A</t>
-  </si>
-  <si>
     <t>TP/Projet info : G108</t>
+  </si>
+  <si>
+    <t>TP/Projet info : C325A+B</t>
+  </si>
+  <si>
+    <t>Révisions : F002/003</t>
+  </si>
+  <si>
+    <t>Architecture des ordinateurs : G102</t>
+  </si>
+  <si>
+    <t>Prog : G102</t>
+  </si>
+  <si>
+    <t>TP réseaux : G105</t>
+  </si>
+  <si>
+    <t>Bases Elec. Gr1:G102 - Gr2:F002/003</t>
+  </si>
+  <si>
+    <t>Double ligne :  promotion complète = 61 élèves</t>
+  </si>
+  <si>
+    <t>1ère ligne :  groupe 1 ou A = 31 élèves</t>
+  </si>
+  <si>
+    <t>Res : voir commentaire</t>
+  </si>
+  <si>
+    <t>TD Archi : G102</t>
+  </si>
+  <si>
+    <t>CGR : G102</t>
+  </si>
+  <si>
+    <t>archi / anglais / CGR : C223</t>
+  </si>
+  <si>
+    <t>TP CGR : B122</t>
+  </si>
+  <si>
+    <t>Archi : Gr1:G102 - Gr2:F003/4</t>
+  </si>
+  <si>
+    <t>Bilan académique : Petit amphi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CGR : G105</t>
+  </si>
+  <si>
+    <t>TD Archi : G105</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +2223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1877,6 +2317,22 @@
     <font>
       <i/>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2373,7 +2829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2423,9 +2879,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2455,6 +2908,12 @@
     <xf numFmtId="49" fontId="8" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2545,30 +3004,36 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2587,16 +3052,16 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2722,6 +3187,12 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2794,18 +3265,42 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3109,10 +3604,10 @@
     <xf numFmtId="49" fontId="8" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3491,8 +3986,8 @@
   </sheetPr>
   <dimension ref="A1:AF142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B3" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:P7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3515,55 +4010,55 @@
   <sheetData>
     <row r="1" spans="1:31" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:31" ht="19.5" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="147" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="140" t="s">
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="148" t="s">
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="147" t="s">
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="140" t="s">
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="184" t="s">
+      <c r="AB2" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="186"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="199"/>
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
@@ -3576,7 +4071,7 @@
       <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="97"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
@@ -3589,7 +4084,7 @@
       <c r="K3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="97"/>
+      <c r="L3" s="100"/>
       <c r="M3" s="13" t="s">
         <v>5</v>
       </c>
@@ -3602,7 +4097,7 @@
       <c r="P3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="97"/>
+      <c r="Q3" s="100"/>
       <c r="R3" s="13" t="s">
         <v>5</v>
       </c>
@@ -3615,7 +4110,7 @@
       <c r="U3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="97"/>
+      <c r="V3" s="100"/>
       <c r="W3" s="13" t="s">
         <v>5</v>
       </c>
@@ -3629,57 +4124,57 @@
         <v>8</v>
       </c>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="188"/>
-      <c r="AD3" s="188"/>
-      <c r="AE3" s="189"/>
-    </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="201"/>
+      <c r="AE3" s="202"/>
+    </row>
+    <row r="4" spans="1:31" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A5" s="102">
+    <row r="5" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A5" s="105">
         <v>36</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="69">
         <v>41883</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="68">
+      <c r="G5" s="69">
         <f>B5+1</f>
         <v>41884</v>
       </c>
@@ -3687,7 +4182,7 @@
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="68">
+      <c r="L5" s="69">
         <f>G5+1</f>
         <v>41885</v>
       </c>
@@ -3695,7 +4190,7 @@
       <c r="N5" s="21"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
-      <c r="Q5" s="68">
+      <c r="Q5" s="69">
         <f>L5+1</f>
         <v>41886</v>
       </c>
@@ -3703,7 +4198,7 @@
       <c r="S5" s="21"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
-      <c r="V5" s="68">
+      <c r="V5" s="69">
         <f>Q5+1</f>
         <v>41887</v>
       </c>
@@ -3712,51 +4207,51 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="22"/>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="190" t="s">
+      <c r="AB5" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="AC5" s="190"/>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-    </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="68"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+    </row>
+    <row r="6" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A6" s="105"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="68"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="68"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
-      <c r="Q6" s="68"/>
+      <c r="Q6" s="69"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="68"/>
+      <c r="V6" s="69"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="22"/>
       <c r="AA6" s="9"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-    </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A7" s="117">
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+    </row>
+    <row r="7" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A7" s="120">
         <v>37</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="69">
         <f>B5+7</f>
         <v>41890</v>
       </c>
@@ -3764,213 +4259,213 @@
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="68">
+      <c r="G7" s="69">
         <f>B7+1</f>
         <v>41891</v>
       </c>
-      <c r="H7" s="259" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="263"/>
-      <c r="J7" s="259" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" s="260"/>
-      <c r="L7" s="68">
+      <c r="H7" s="272" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="276"/>
+      <c r="J7" s="272" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="273"/>
+      <c r="L7" s="69">
         <f>G7+1</f>
         <v>41892</v>
       </c>
-      <c r="M7" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="68">
+      <c r="M7" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="69">
         <f>L7+1</f>
         <v>41893</v>
       </c>
-      <c r="R7" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="68">
+      <c r="R7" s="146" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="69">
         <f>Q7+1</f>
         <v>41894</v>
       </c>
-      <c r="W7" s="141" t="s">
-        <v>175</v>
-      </c>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z7" s="72"/>
+      <c r="W7" s="146" t="s">
+        <v>161</v>
+      </c>
+      <c r="X7" s="147"/>
+      <c r="Y7" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z7" s="73"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="190" t="s">
+      <c r="AB7" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="AC7" s="190"/>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="190"/>
-    </row>
-    <row r="8" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="68"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+    </row>
+    <row r="8" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A8" s="120"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="261"/>
-      <c r="K8" s="262"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="141" t="s">
-        <v>163</v>
-      </c>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="141" t="s">
-        <v>155</v>
-      </c>
-      <c r="S8" s="146"/>
-      <c r="T8" s="146"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="141" t="s">
-        <v>156</v>
-      </c>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="74"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="274"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="274"/>
+      <c r="K8" s="275"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="146" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="X8" s="147"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="75"/>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-    </row>
-    <row r="9" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A9" s="117">
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+    </row>
+    <row r="9" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A9" s="120">
         <v>38</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="69">
         <f>B7+7</f>
         <v>41897</v>
       </c>
-      <c r="C9" s="134" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="68">
+      <c r="C9" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="69">
         <f>G7+7</f>
         <v>41898</v>
       </c>
-      <c r="H9" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="151">
+      <c r="H9" s="148" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="156">
         <f>L7+7</f>
         <v>41899</v>
       </c>
-      <c r="M9" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="68">
+      <c r="M9" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="66"/>
+      <c r="O9" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="69">
         <f>Q7+7</f>
         <v>41900</v>
       </c>
-      <c r="R9" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="S9" s="100"/>
-      <c r="T9" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="U9" s="67"/>
-      <c r="V9" s="68">
+      <c r="R9" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="103"/>
+      <c r="T9" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="U9" s="68"/>
+      <c r="V9" s="69">
         <f>V7+7</f>
         <v>41901</v>
       </c>
-      <c r="W9" s="98" t="s">
+      <c r="W9" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
       <c r="AA9" s="9"/>
-      <c r="AB9" s="191" t="s">
+      <c r="AB9" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="AC9" s="192"/>
-      <c r="AD9" s="192"/>
-      <c r="AE9" s="193"/>
-    </row>
-    <row r="10" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="113" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="N10" s="150"/>
-      <c r="O10" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="S10" s="65"/>
-      <c r="T10" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="U10" s="150"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
+      <c r="AC9" s="205"/>
+      <c r="AD9" s="205"/>
+      <c r="AE9" s="206"/>
+    </row>
+    <row r="10" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A10" s="120"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="148" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="155"/>
+      <c r="O10" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="S10" s="66"/>
+      <c r="T10" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="U10" s="155"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
       <c r="AA10" s="9"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-    </row>
-    <row r="11" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A11" s="102">
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+    </row>
+    <row r="11" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A11" s="105">
         <v>39</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="69">
         <f>B9+7</f>
         <v>41904</v>
       </c>
@@ -3978,7 +4473,7 @@
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="68">
+      <c r="G11" s="69">
         <f>G9+7</f>
         <v>41905</v>
       </c>
@@ -3986,7 +4481,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="68">
+      <c r="L11" s="69">
         <f>L9+7</f>
         <v>41906</v>
       </c>
@@ -3994,7 +4489,7 @@
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-      <c r="Q11" s="68">
+      <c r="Q11" s="69">
         <f>Q9+7</f>
         <v>41907</v>
       </c>
@@ -4002,7 +4497,7 @@
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
-      <c r="V11" s="68">
+      <c r="V11" s="69">
         <f>V9+7</f>
         <v>41908</v>
       </c>
@@ -4011,203 +4506,203 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="194" t="s">
+      <c r="AB11" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="AC11" s="195"/>
-      <c r="AD11" s="195"/>
-      <c r="AE11" s="196"/>
-    </row>
-    <row r="12" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="68"/>
+      <c r="AC11" s="208"/>
+      <c r="AD11" s="208"/>
+      <c r="AE11" s="209"/>
+    </row>
+    <row r="12" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A12" s="105"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="68"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="68"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
-      <c r="Q12" s="68"/>
+      <c r="Q12" s="69"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
-      <c r="V12" s="68"/>
+      <c r="V12" s="69"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="22"/>
       <c r="Z12" s="22"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="199"/>
-    </row>
-    <row r="13" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="AB12" s="210"/>
+      <c r="AC12" s="211"/>
+      <c r="AD12" s="211"/>
+      <c r="AE12" s="212"/>
+    </row>
+    <row r="13" spans="1:31" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-    </row>
-    <row r="14" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A14" s="117">
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+    </row>
+    <row r="14" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A14" s="120">
         <v>40</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="69">
         <f>B11+7</f>
         <v>41911</v>
       </c>
-      <c r="C14" s="134" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="68">
+      <c r="C14" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="69">
         <f>G11+7</f>
         <v>41912</v>
       </c>
-      <c r="H14" s="134" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="68">
+      <c r="H14" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="69">
         <f>L11+7</f>
         <v>41913</v>
       </c>
-      <c r="M14" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="N14" s="65"/>
-      <c r="O14" s="99" t="s">
+      <c r="M14" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="66"/>
+      <c r="O14" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="68">
+      <c r="P14" s="103"/>
+      <c r="Q14" s="69">
         <f>Q11+7</f>
         <v>41914</v>
       </c>
-      <c r="R14" s="99" t="s">
+      <c r="R14" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="S14" s="100"/>
-      <c r="T14" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="U14" s="67"/>
-      <c r="V14" s="68">
+      <c r="S14" s="103"/>
+      <c r="T14" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="U14" s="68"/>
+      <c r="V14" s="69">
         <f>V11+7</f>
         <v>41915</v>
       </c>
-      <c r="W14" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z14" s="86"/>
+      <c r="W14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="89"/>
       <c r="AA14" s="9"/>
-      <c r="AB14" s="200" t="s">
+      <c r="AB14" s="213" t="s">
         <v>20</v>
       </c>
-      <c r="AC14" s="201"/>
-      <c r="AD14" s="201"/>
-      <c r="AE14" s="202"/>
-    </row>
-    <row r="15" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A15" s="117"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="257" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="258"/>
-      <c r="E15" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="126"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="N15" s="150"/>
-      <c r="O15" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="S15" s="67"/>
-      <c r="T15" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="U15" s="150"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z15" s="40"/>
+      <c r="AC14" s="214"/>
+      <c r="AD14" s="214"/>
+      <c r="AE14" s="215"/>
+    </row>
+    <row r="15" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A15" s="120"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="270" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="271"/>
+      <c r="E15" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="129"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="155"/>
+      <c r="O15" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="S15" s="68"/>
+      <c r="T15" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="U15" s="155"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z15" s="41"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="204"/>
-      <c r="AD15" s="204"/>
-      <c r="AE15" s="205"/>
-    </row>
-    <row r="16" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A16" s="102">
+      <c r="AB15" s="216"/>
+      <c r="AC15" s="217"/>
+      <c r="AD15" s="217"/>
+      <c r="AE15" s="218"/>
+    </row>
+    <row r="16" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A16" s="105">
         <v>41</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="69">
         <f>B14+7</f>
         <v>41918</v>
       </c>
@@ -4215,7 +4710,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="68">
+      <c r="G16" s="69">
         <f>G14+7</f>
         <v>41919</v>
       </c>
@@ -4223,7 +4718,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="68">
+      <c r="L16" s="69">
         <f>L14+7</f>
         <v>41920</v>
       </c>
@@ -4231,7 +4726,7 @@
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
-      <c r="Q16" s="68">
+      <c r="Q16" s="69">
         <f>Q14+7</f>
         <v>41921</v>
       </c>
@@ -4239,7 +4734,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
-      <c r="V16" s="68">
+      <c r="V16" s="69">
         <f>V14+7</f>
         <v>41922</v>
       </c>
@@ -4248,164 +4743,164 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
       <c r="AA16" s="9"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-    </row>
-    <row r="17" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="68"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+    </row>
+    <row r="17" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A17" s="105"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="68"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="68"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
-      <c r="Q17" s="68"/>
+      <c r="Q17" s="69"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
-      <c r="V17" s="68"/>
+      <c r="V17" s="69"/>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="22"/>
       <c r="AA17" s="9"/>
-      <c r="AB17" s="206" t="s">
+      <c r="AB17" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="AC17" s="207"/>
-      <c r="AD17" s="207"/>
-      <c r="AE17" s="208"/>
-    </row>
-    <row r="18" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A18" s="117">
+      <c r="AC17" s="220"/>
+      <c r="AD17" s="220"/>
+      <c r="AE17" s="221"/>
+    </row>
+    <row r="18" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A18" s="120">
         <v>42</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="69">
         <f>B16+7</f>
         <v>41925</v>
       </c>
-      <c r="C18" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="152" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="154" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="155"/>
-      <c r="G18" s="68">
+      <c r="C18" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="158"/>
+      <c r="G18" s="69">
         <f>G16+7</f>
         <v>41926</v>
       </c>
-      <c r="H18" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="87">
+      <c r="H18" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="90">
         <f>L16+7</f>
         <v>41927</v>
       </c>
-      <c r="M18" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" s="57"/>
-      <c r="O18" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q18" s="68">
+      <c r="M18" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="N18" s="58"/>
+      <c r="O18" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q18" s="69">
         <f>Q16+7</f>
         <v>41928</v>
       </c>
-      <c r="R18" s="64" t="s">
+      <c r="R18" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="S18" s="65"/>
-      <c r="T18" s="66" t="s">
+      <c r="S18" s="66"/>
+      <c r="T18" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="U18" s="67"/>
-      <c r="V18" s="68">
+      <c r="U18" s="68"/>
+      <c r="V18" s="69">
         <f>V16+7</f>
         <v>41929</v>
       </c>
-      <c r="W18" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z18" s="86"/>
+      <c r="W18" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z18" s="89"/>
       <c r="AA18" s="9"/>
     </row>
-    <row r="19" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="117"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="S19" s="67"/>
-      <c r="T19" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="U19" s="65"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z19" s="40"/>
+    <row r="19" spans="1:31" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="A19" s="120"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="129"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="S19" s="68"/>
+      <c r="T19" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="U19" s="66"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="41"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A20" s="102">
+    <row r="20" spans="1:31" ht="13.5" hidden="1" customHeight="1">
+      <c r="A20" s="105">
         <v>43</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="69">
         <f>B18+7</f>
         <v>41932</v>
       </c>
@@ -4413,7 +4908,7 @@
       <c r="D20" s="21"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="68">
+      <c r="G20" s="69">
         <f>G18+7</f>
         <v>41933</v>
       </c>
@@ -4421,7 +4916,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
-      <c r="L20" s="68">
+      <c r="L20" s="69">
         <f>L18+7</f>
         <v>41934</v>
       </c>
@@ -4429,7 +4924,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
-      <c r="Q20" s="68">
+      <c r="Q20" s="69">
         <f>Q18+7</f>
         <v>41935</v>
       </c>
@@ -4437,7 +4932,7 @@
       <c r="S20" s="21"/>
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
-      <c r="V20" s="68">
+      <c r="V20" s="69">
         <f>V18+7</f>
         <v>41936</v>
       </c>
@@ -4446,299 +4941,299 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="22"/>
       <c r="AA20" s="9"/>
-      <c r="AB20" s="184" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC20" s="185"/>
-      <c r="AD20" s="185"/>
-      <c r="AE20" s="186"/>
-    </row>
-    <row r="21" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="68"/>
+      <c r="AB20" s="197" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC20" s="198"/>
+      <c r="AD20" s="198"/>
+      <c r="AE20" s="199"/>
+    </row>
+    <row r="21" spans="1:31" ht="13.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="A21" s="105"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="68"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
-      <c r="L21" s="68"/>
+      <c r="L21" s="69"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
-      <c r="Q21" s="68"/>
+      <c r="Q21" s="69"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
-      <c r="V21" s="68"/>
+      <c r="V21" s="69"/>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
       <c r="AA21" s="9"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="188"/>
-      <c r="AD21" s="188"/>
-      <c r="AE21" s="189"/>
+      <c r="AB21" s="200"/>
+      <c r="AC21" s="201"/>
+      <c r="AD21" s="201"/>
+      <c r="AE21" s="202"/>
     </row>
     <row r="22" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="136"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="136"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="136"/>
+      <c r="Y22" s="136"/>
+      <c r="Z22" s="136"/>
     </row>
     <row r="23" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A23" s="102">
+      <c r="A23" s="105">
         <v>44</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="69">
         <f>B20+7</f>
         <v>41939</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="68">
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="69">
         <f>G20+7</f>
         <v>41940</v>
       </c>
-      <c r="H23" s="101" t="s">
+      <c r="H23" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="68">
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="69">
         <f>L20+7</f>
         <v>41941</v>
       </c>
-      <c r="M23" s="101" t="s">
+      <c r="M23" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="68">
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="69">
         <f>Q20+7</f>
         <v>41942</v>
       </c>
-      <c r="R23" s="101" t="s">
+      <c r="R23" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="68">
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="69">
         <f>V20+7</f>
         <v>41943</v>
       </c>
-      <c r="W23" s="101" t="s">
+      <c r="W23" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
       <c r="AA23" s="9"/>
-      <c r="AB23" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="31"/>
+      <c r="AB23" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="30"/>
     </row>
     <row r="24" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
       <c r="AA24" s="9"/>
-      <c r="AB24" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="34"/>
+      <c r="AB24" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="33"/>
     </row>
     <row r="25" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="69">
         <f>B23+7</f>
         <v>41946</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="68">
+      <c r="C25" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="69">
         <f>G23+7</f>
         <v>41947</v>
       </c>
-      <c r="H25" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="63"/>
-      <c r="J25" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="68">
+      <c r="H25" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" s="64"/>
+      <c r="J25" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="62"/>
+      <c r="L25" s="69">
         <f>G25+1</f>
         <v>41948</v>
       </c>
-      <c r="M25" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="N25" s="80"/>
-      <c r="O25" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q25" s="68">
+      <c r="M25" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="N25" s="83"/>
+      <c r="O25" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="69">
         <f>L25+1</f>
         <v>41949</v>
       </c>
-      <c r="R25" s="64" t="s">
+      <c r="R25" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="S25" s="65"/>
-      <c r="T25" s="66" t="s">
+      <c r="S25" s="66"/>
+      <c r="T25" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="U25" s="67"/>
-      <c r="V25" s="68">
+      <c r="U25" s="68"/>
+      <c r="V25" s="69">
         <f>Q25+1</f>
         <v>41950</v>
       </c>
-      <c r="W25" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z25" s="86"/>
+      <c r="W25" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z25" s="89"/>
       <c r="AA25" s="9"/>
-      <c r="AB25" s="209" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC25" s="210"/>
-      <c r="AD25" s="210"/>
-      <c r="AE25" s="211"/>
+      <c r="AB25" s="222" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC25" s="223"/>
+      <c r="AD25" s="223"/>
+      <c r="AE25" s="224"/>
     </row>
     <row r="26" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="61"/>
-      <c r="J26" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="K26" s="63"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="S26" s="67"/>
-      <c r="T26" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="U26" s="65"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z26" s="40"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="64"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="S26" s="68"/>
+      <c r="T26" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="U26" s="66"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z26" s="41"/>
       <c r="AA26" s="9"/>
-      <c r="AB26" s="212"/>
-      <c r="AC26" s="213"/>
-      <c r="AD26" s="213"/>
-      <c r="AE26" s="214"/>
+      <c r="AB26" s="225"/>
+      <c r="AC26" s="226"/>
+      <c r="AD26" s="226"/>
+      <c r="AE26" s="227"/>
     </row>
     <row r="27" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A27" s="102">
+      <c r="A27" s="105">
         <v>46</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="69">
         <f>B25+7</f>
         <v>41953</v>
       </c>
@@ -4746,17 +5241,17 @@
       <c r="D27" s="21"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="68">
+      <c r="G27" s="69">
         <f>G25+7</f>
         <v>41954</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="68">
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="69">
         <f>G27+1</f>
         <v>41955</v>
       </c>
@@ -4764,7 +5259,7 @@
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
-      <c r="Q27" s="68">
+      <c r="Q27" s="69">
         <f>L27+1</f>
         <v>41956</v>
       </c>
@@ -4772,7 +5267,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="22"/>
       <c r="U27" s="22"/>
-      <c r="V27" s="68">
+      <c r="V27" s="69">
         <f>Q27+1</f>
         <v>41957</v>
       </c>
@@ -4783,28 +5278,28 @@
       <c r="AA27" s="9"/>
     </row>
     <row r="28" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="68"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="22"/>
       <c r="D28" s="21"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
-      <c r="Q28" s="68"/>
+      <c r="Q28" s="69"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
-      <c r="V28" s="68"/>
+      <c r="V28" s="69"/>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="22"/>
@@ -4812,133 +5307,133 @@
       <c r="AA28" s="9"/>
     </row>
     <row r="29" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A29" s="132">
+      <c r="A29" s="137">
         <v>47</v>
       </c>
-      <c r="B29" s="68">
+      <c r="B29" s="69">
         <f>B27+7</f>
         <v>41960</v>
       </c>
-      <c r="C29" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="68">
+      <c r="C29" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="69">
         <f>G27+7</f>
         <v>41961</v>
       </c>
-      <c r="H29" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="J29" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="63"/>
-      <c r="L29" s="68">
+      <c r="H29" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="64"/>
+      <c r="L29" s="69">
         <f>G29+1</f>
         <v>41962</v>
       </c>
-      <c r="M29" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="N29" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="O29" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="68">
+      <c r="M29" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="N29" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="69">
         <f>L29+1</f>
         <v>41963</v>
       </c>
-      <c r="R29" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="S29" s="67"/>
-      <c r="T29" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="U29" s="65"/>
-      <c r="V29" s="68">
+      <c r="R29" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="S29" s="68"/>
+      <c r="T29" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="U29" s="66"/>
+      <c r="V29" s="69">
         <f>Q29+1</f>
         <v>41964</v>
       </c>
-      <c r="W29" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z29" s="86"/>
+      <c r="W29" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z29" s="89"/>
       <c r="AA29" s="9"/>
-      <c r="AB29" s="184" t="s">
+      <c r="AB29" s="197" t="s">
         <v>48</v>
       </c>
-      <c r="AC29" s="185"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="186"/>
+      <c r="AC29" s="198"/>
+      <c r="AD29" s="198"/>
+      <c r="AE29" s="199"/>
     </row>
     <row r="30" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="132"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="J30" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" s="63"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="S30" s="65"/>
-      <c r="T30" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="U30" s="67"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z30" s="40"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="64"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="S30" s="66"/>
+      <c r="T30" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="U30" s="68"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="41"/>
       <c r="AA30" s="9"/>
-      <c r="AB30" s="187"/>
-      <c r="AC30" s="188"/>
-      <c r="AD30" s="188"/>
-      <c r="AE30" s="189"/>
+      <c r="AB30" s="200"/>
+      <c r="AC30" s="201"/>
+      <c r="AD30" s="201"/>
+      <c r="AE30" s="202"/>
     </row>
     <row r="31" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A31" s="102">
+      <c r="A31" s="105">
         <v>48</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="69">
         <f>B29+7</f>
         <v>41967</v>
       </c>
@@ -4946,7 +5441,7 @@
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="68">
+      <c r="G31" s="69">
         <f>G29+7</f>
         <v>41968</v>
       </c>
@@ -4954,7 +5449,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="68">
+      <c r="L31" s="69">
         <f>G31+1</f>
         <v>41969</v>
       </c>
@@ -4962,7 +5457,7 @@
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
-      <c r="Q31" s="68">
+      <c r="Q31" s="69">
         <f>L31+1</f>
         <v>41970</v>
       </c>
@@ -4970,7 +5465,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="22"/>
       <c r="U31" s="22"/>
-      <c r="V31" s="68">
+      <c r="V31" s="69">
         <f>Q31+1</f>
         <v>41971</v>
       </c>
@@ -4981,202 +5476,202 @@
       <c r="AA31" s="9"/>
     </row>
     <row r="32" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="68"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="68"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="68"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
-      <c r="Q32" s="68"/>
+      <c r="Q32" s="69"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="22"/>
       <c r="U32" s="22"/>
-      <c r="V32" s="68"/>
+      <c r="V32" s="69"/>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
       <c r="Y32" s="22"/>
       <c r="Z32" s="22"/>
       <c r="AA32" s="9"/>
-      <c r="AB32" s="239" t="s">
+      <c r="AB32" s="252" t="s">
         <v>43</v>
       </c>
-      <c r="AC32" s="240"/>
-      <c r="AD32" s="240"/>
-      <c r="AE32" s="241"/>
+      <c r="AC32" s="253"/>
+      <c r="AD32" s="253"/>
+      <c r="AE32" s="254"/>
     </row>
     <row r="33" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="131" t="s">
+      <c r="B33" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AB33" s="242"/>
-      <c r="AC33" s="243"/>
-      <c r="AD33" s="243"/>
-      <c r="AE33" s="244"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="136"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="136"/>
+      <c r="V33" s="136"/>
+      <c r="W33" s="136"/>
+      <c r="X33" s="136"/>
+      <c r="Y33" s="136"/>
+      <c r="Z33" s="136"/>
+      <c r="AB33" s="255"/>
+      <c r="AC33" s="256"/>
+      <c r="AD33" s="256"/>
+      <c r="AE33" s="257"/>
     </row>
     <row r="34" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A34" s="132">
+      <c r="A34" s="137">
         <v>49</v>
       </c>
-      <c r="B34" s="68">
+      <c r="B34" s="69">
         <f>B31+7</f>
         <v>41974</v>
       </c>
-      <c r="C34" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="68">
+      <c r="C34" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="44"/>
+      <c r="G34" s="69">
         <f>G31+7</f>
         <v>41975</v>
       </c>
-      <c r="H34" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="K34" s="63"/>
-      <c r="L34" s="68">
+      <c r="H34" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="64"/>
+      <c r="L34" s="69">
         <f>G34+1</f>
         <v>41976</v>
       </c>
-      <c r="M34" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="N34" s="80"/>
-      <c r="O34" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="68">
+      <c r="M34" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="N34" s="83"/>
+      <c r="O34" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="69">
         <f>L34+1</f>
         <v>41977</v>
       </c>
-      <c r="R34" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="S34" s="67"/>
-      <c r="T34" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="U34" s="65"/>
-      <c r="V34" s="68">
+      <c r="R34" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="S34" s="68"/>
+      <c r="T34" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="U34" s="66"/>
+      <c r="V34" s="69">
         <f>Q34+1</f>
         <v>41978</v>
       </c>
-      <c r="W34" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z34" s="86"/>
+      <c r="W34" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z34" s="89"/>
       <c r="AA34" s="9"/>
-      <c r="AB34" s="245" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC34" s="246"/>
-      <c r="AD34" s="246"/>
-      <c r="AE34" s="247"/>
+      <c r="AB34" s="258" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC34" s="259"/>
+      <c r="AD34" s="259"/>
+      <c r="AE34" s="260"/>
     </row>
     <row r="35" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A35" s="132"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="63"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="S35" s="65"/>
-      <c r="T35" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="U35" s="67"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="X35" s="86"/>
-      <c r="Y35" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z35" s="40"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="64"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="S35" s="66"/>
+      <c r="T35" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="U35" s="68"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z35" s="41"/>
       <c r="AA35" s="9"/>
-      <c r="AB35" s="248" t="s">
+      <c r="AB35" s="261" t="s">
         <v>45</v>
       </c>
-      <c r="AC35" s="249"/>
-      <c r="AD35" s="249"/>
-      <c r="AE35" s="250"/>
+      <c r="AC35" s="262"/>
+      <c r="AD35" s="262"/>
+      <c r="AE35" s="263"/>
     </row>
     <row r="36" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A36" s="102">
+      <c r="A36" s="105">
         <v>50</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="69">
         <f>B34+7</f>
         <v>41981</v>
       </c>
@@ -5184,7 +5679,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="68">
+      <c r="G36" s="69">
         <f>G34+7</f>
         <v>41982</v>
       </c>
@@ -5192,7 +5687,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="68">
+      <c r="L36" s="69">
         <f>G36+1</f>
         <v>41983</v>
       </c>
@@ -5200,7 +5695,7 @@
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
-      <c r="Q36" s="68">
+      <c r="Q36" s="69">
         <f>L36+1</f>
         <v>41984</v>
       </c>
@@ -5208,7 +5703,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="22"/>
       <c r="U36" s="22"/>
-      <c r="V36" s="68">
+      <c r="V36" s="69">
         <f>Q36+1</f>
         <v>41985</v>
       </c>
@@ -5217,403 +5712,403 @@
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
       <c r="AA36" s="20"/>
-      <c r="AB36" s="224" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC36" s="225"/>
-      <c r="AD36" s="225"/>
-      <c r="AE36" s="226"/>
+      <c r="AB36" s="237" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC36" s="238"/>
+      <c r="AD36" s="238"/>
+      <c r="AE36" s="239"/>
     </row>
     <row r="37" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="68"/>
+      <c r="G37" s="69"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
-      <c r="L37" s="68"/>
+      <c r="L37" s="69"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
-      <c r="Q37" s="68"/>
+      <c r="Q37" s="69"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="22"/>
       <c r="U37" s="22"/>
-      <c r="V37" s="68"/>
+      <c r="V37" s="69"/>
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="22"/>
       <c r="Z37" s="22"/>
       <c r="AA37" s="20"/>
-      <c r="AB37" s="224" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC37" s="225"/>
-      <c r="AD37" s="225"/>
-      <c r="AE37" s="226"/>
+      <c r="AB37" s="237" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC37" s="238"/>
+      <c r="AD37" s="238"/>
+      <c r="AE37" s="239"/>
     </row>
     <row r="38" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A38" s="132">
+      <c r="A38" s="137">
         <v>51</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="69">
         <f>B36+7</f>
         <v>41988</v>
       </c>
-      <c r="C38" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="128">
+      <c r="C38" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="44"/>
+      <c r="G38" s="133">
         <f>G36+7</f>
         <v>41989</v>
       </c>
-      <c r="H38" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="J38" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="63"/>
-      <c r="L38" s="87">
+      <c r="H38" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="64"/>
+      <c r="L38" s="90">
         <f>G38+1</f>
         <v>41990</v>
       </c>
-      <c r="M38" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="N38" s="61"/>
-      <c r="O38" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="87">
+      <c r="M38" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38" s="62"/>
+      <c r="O38" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="90">
         <f>L38+1</f>
         <v>41991</v>
       </c>
-      <c r="R38" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="S38" s="67"/>
-      <c r="T38" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="U38" s="65"/>
-      <c r="V38" s="87">
+      <c r="R38" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="S38" s="68"/>
+      <c r="T38" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="U38" s="66"/>
+      <c r="V38" s="90">
         <f>Q38+1</f>
         <v>41992</v>
       </c>
-      <c r="W38" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="X38" s="80"/>
-      <c r="Y38" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z38" s="57"/>
+      <c r="W38" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="X38" s="83"/>
+      <c r="Y38" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z38" s="58"/>
       <c r="AA38" s="9"/>
-      <c r="AB38" s="227" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC38" s="228"/>
-      <c r="AD38" s="228"/>
-      <c r="AE38" s="229"/>
+      <c r="AB38" s="240" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC38" s="241"/>
+      <c r="AD38" s="241"/>
+      <c r="AE38" s="242"/>
     </row>
     <row r="39" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A39" s="132"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="J39" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="K39" s="61"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="N39" s="63"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="S39" s="65"/>
-      <c r="T39" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="U39" s="67"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="81"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="59"/>
+      <c r="A39" s="137"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="62"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="64"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="S39" s="66"/>
+      <c r="T39" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="U39" s="68"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="84"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="60"/>
       <c r="AA39" s="9"/>
-      <c r="AB39" s="227" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC39" s="228"/>
-      <c r="AD39" s="228"/>
-      <c r="AE39" s="229"/>
+      <c r="AB39" s="240" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC39" s="241"/>
+      <c r="AD39" s="241"/>
+      <c r="AE39" s="242"/>
     </row>
     <row r="40" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A40" s="102">
+      <c r="A40" s="105">
         <v>52</v>
       </c>
-      <c r="B40" s="68">
+      <c r="B40" s="69">
         <f>B38+7</f>
         <v>41995</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="68">
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="69">
         <f>G38+7</f>
         <v>41996</v>
       </c>
-      <c r="H40" s="101" t="s">
+      <c r="H40" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="68">
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="69">
         <f>G40+1</f>
         <v>41997</v>
       </c>
-      <c r="M40" s="101" t="s">
+      <c r="M40" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="68">
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="69">
         <f>L40+1</f>
         <v>41998</v>
       </c>
-      <c r="R40" s="88" t="s">
+      <c r="R40" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="68">
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="69">
         <f>Q40+1</f>
         <v>41999</v>
       </c>
-      <c r="W40" s="101" t="s">
+      <c r="W40" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="104"/>
       <c r="AA40" s="9"/>
-      <c r="AB40" s="277" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC40" s="278"/>
-      <c r="AD40" s="278"/>
-      <c r="AE40" s="279"/>
+      <c r="AB40" s="290" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC40" s="291"/>
+      <c r="AD40" s="291"/>
+      <c r="AE40" s="292"/>
     </row>
     <row r="41" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A41" s="102"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="104"/>
       <c r="AA41" s="9"/>
-      <c r="AB41" s="277" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC41" s="278"/>
-      <c r="AD41" s="278"/>
-      <c r="AE41" s="279"/>
+      <c r="AB41" s="290" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC41" s="291"/>
+      <c r="AD41" s="291"/>
+      <c r="AE41" s="292"/>
     </row>
     <row r="42" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="131"/>
-      <c r="Q42" s="131"/>
-      <c r="R42" s="131"/>
-      <c r="S42" s="131"/>
-      <c r="T42" s="131"/>
-      <c r="U42" s="131"/>
-      <c r="V42" s="131"/>
-      <c r="W42" s="131"/>
-      <c r="X42" s="131"/>
-      <c r="Y42" s="131"/>
-      <c r="Z42" s="131"/>
-      <c r="AB42" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC42" s="167"/>
-      <c r="AD42" s="167"/>
-      <c r="AE42" s="168"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="136"/>
+      <c r="O42" s="136"/>
+      <c r="P42" s="136"/>
+      <c r="Q42" s="136"/>
+      <c r="R42" s="136"/>
+      <c r="S42" s="136"/>
+      <c r="T42" s="136"/>
+      <c r="U42" s="136"/>
+      <c r="V42" s="136"/>
+      <c r="W42" s="136"/>
+      <c r="X42" s="136"/>
+      <c r="Y42" s="136"/>
+      <c r="Z42" s="136"/>
+      <c r="AB42" s="179" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC42" s="180"/>
+      <c r="AD42" s="180"/>
+      <c r="AE42" s="181"/>
     </row>
     <row r="43" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A43" s="139">
+      <c r="A43" s="144">
         <v>1</v>
       </c>
-      <c r="B43" s="87">
+      <c r="B43" s="90">
         <v>42002</v>
       </c>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="87">
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="90">
         <f>B43+1</f>
         <v>42003</v>
       </c>
-      <c r="H43" s="101" t="s">
+      <c r="H43" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="87">
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="90">
         <f>G43+1</f>
         <v>42004</v>
       </c>
-      <c r="M43" s="101" t="s">
+      <c r="M43" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="87">
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="90">
         <f>L43+1</f>
         <v>42005</v>
       </c>
-      <c r="R43" s="88" t="s">
+      <c r="R43" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="87">
+      <c r="S43" s="91"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="90">
         <f>Q43+1</f>
         <v>42006</v>
       </c>
-      <c r="W43" s="101" t="s">
+      <c r="W43" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
+      <c r="X43" s="104"/>
+      <c r="Y43" s="104"/>
+      <c r="Z43" s="104"/>
       <c r="AA43" s="9"/>
-      <c r="AB43" s="166" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC43" s="167"/>
-      <c r="AD43" s="167"/>
-      <c r="AE43" s="168"/>
+      <c r="AB43" s="179" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC43" s="180"/>
+      <c r="AD43" s="180"/>
+      <c r="AE43" s="181"/>
     </row>
     <row r="44" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A44" s="139"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="87"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
+      <c r="A44" s="144"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="90"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
       <c r="AA44" s="9"/>
-      <c r="AB44" s="169" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC44" s="170"/>
-      <c r="AD44" s="170"/>
-      <c r="AE44" s="171"/>
+      <c r="AB44" s="182" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC44" s="183"/>
+      <c r="AD44" s="183"/>
+      <c r="AE44" s="184"/>
     </row>
     <row r="45" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A45" s="130" t="s">
+      <c r="A45" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="68">
+      <c r="B45" s="69">
         <f>B43+7</f>
         <v>42009</v>
       </c>
@@ -5621,7 +6116,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
-      <c r="G45" s="68">
+      <c r="G45" s="69">
         <f>B45+1</f>
         <v>42010</v>
       </c>
@@ -5629,39 +6124,39 @@
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
-      <c r="L45" s="68">
+      <c r="L45" s="69">
         <f>G45+1</f>
         <v>42011</v>
       </c>
-      <c r="M45" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="N45" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="O45" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="P45" s="152" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q45" s="68">
+      <c r="M45" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="N45" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="P45" s="159" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" s="69">
         <f>L45+1</f>
         <v>42012</v>
       </c>
-      <c r="R45" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="S45" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="T45" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="U45" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="V45" s="68">
+      <c r="R45" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="S45" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="T45" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="U45" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" s="69">
         <f>Q45+1</f>
         <v>42013</v>
       </c>
@@ -5670,158 +6165,158 @@
       <c r="Y45" s="22"/>
       <c r="Z45" s="22"/>
       <c r="AA45" s="20"/>
-      <c r="AB45" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC45" s="170"/>
-      <c r="AD45" s="170"/>
-      <c r="AE45" s="171"/>
+      <c r="AB45" s="182" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC45" s="183"/>
+      <c r="AD45" s="183"/>
+      <c r="AE45" s="184"/>
     </row>
     <row r="46" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A46" s="117"/>
-      <c r="B46" s="68"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
-      <c r="G46" s="68"/>
+      <c r="G46" s="69"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="153"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="138"/>
-      <c r="T46" s="70"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="68"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="160"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="143"/>
+      <c r="T46" s="79"/>
+      <c r="U46" s="132"/>
+      <c r="V46" s="69"/>
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
       <c r="Y46" s="22"/>
       <c r="Z46" s="22"/>
       <c r="AA46" s="20"/>
-      <c r="AB46" s="172" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC46" s="173"/>
-      <c r="AD46" s="173"/>
-      <c r="AE46" s="174"/>
+      <c r="AB46" s="185" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC46" s="186"/>
+      <c r="AD46" s="186"/>
+      <c r="AE46" s="187"/>
     </row>
     <row r="47" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A47" s="102">
+      <c r="A47" s="105">
         <v>3</v>
       </c>
-      <c r="B47" s="68">
+      <c r="B47" s="69">
         <f>B45+7</f>
         <v>42016</v>
       </c>
-      <c r="C47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="72"/>
-      <c r="G47" s="68">
+      <c r="C47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="73"/>
+      <c r="E47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="73"/>
+      <c r="G47" s="69">
         <f>B47+1</f>
         <v>42017</v>
       </c>
-      <c r="H47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="I47" s="72"/>
-      <c r="J47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="K47" s="72"/>
-      <c r="L47" s="68">
+      <c r="H47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="73"/>
+      <c r="J47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="73"/>
+      <c r="L47" s="69">
         <f>G47+1</f>
         <v>42018</v>
       </c>
-      <c r="M47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="N47" s="72"/>
-      <c r="O47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="68">
+      <c r="M47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="N47" s="73"/>
+      <c r="O47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="69">
         <f>L47+1</f>
         <v>42019</v>
       </c>
-      <c r="R47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="S47" s="72"/>
-      <c r="T47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="U47" s="72"/>
-      <c r="V47" s="68">
+      <c r="R47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="S47" s="73"/>
+      <c r="T47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="U47" s="73"/>
+      <c r="V47" s="69">
         <f>Q47+1</f>
         <v>42020</v>
       </c>
-      <c r="W47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z47" s="72"/>
+      <c r="W47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z47" s="73"/>
       <c r="AA47" s="9"/>
-      <c r="AB47" s="175" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC47" s="176"/>
-      <c r="AD47" s="176"/>
-      <c r="AE47" s="177"/>
+      <c r="AB47" s="188" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC47" s="189"/>
+      <c r="AD47" s="189"/>
+      <c r="AE47" s="190"/>
     </row>
     <row r="48" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A48" s="102"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="74"/>
-      <c r="T48" s="73"/>
-      <c r="U48" s="74"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="74"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="74"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="74"/>
+      <c r="U48" s="75"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="75"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="75"/>
       <c r="AA48" s="9"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
     </row>
     <row r="49" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A49" s="102">
+      <c r="A49" s="105">
         <v>4</v>
       </c>
-      <c r="B49" s="68">
+      <c r="B49" s="69">
         <f>B47+7</f>
         <v>42023</v>
       </c>
@@ -5829,7 +6324,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
-      <c r="G49" s="68">
+      <c r="G49" s="69">
         <f>B49+1</f>
         <v>42024</v>
       </c>
@@ -5837,7 +6332,7 @@
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
-      <c r="L49" s="68">
+      <c r="L49" s="69">
         <f>G49+1</f>
         <v>42025</v>
       </c>
@@ -5845,7 +6340,7 @@
       <c r="N49" s="21"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
-      <c r="Q49" s="68">
+      <c r="Q49" s="69">
         <f>L49+1</f>
         <v>42026</v>
       </c>
@@ -5853,7 +6348,7 @@
       <c r="S49" s="21"/>
       <c r="T49" s="22"/>
       <c r="U49" s="22"/>
-      <c r="V49" s="68">
+      <c r="V49" s="69">
         <f>Q49+1</f>
         <v>42027</v>
       </c>
@@ -5862,305 +6357,305 @@
       <c r="Y49" s="22"/>
       <c r="Z49" s="22"/>
       <c r="AA49" s="20"/>
-      <c r="AB49" s="265" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC49" s="266"/>
-      <c r="AD49" s="266"/>
-      <c r="AE49" s="267"/>
+      <c r="AB49" s="278" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC49" s="279"/>
+      <c r="AD49" s="279"/>
+      <c r="AE49" s="280"/>
     </row>
     <row r="50" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A50" s="102"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="68"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
-      <c r="L50" s="68"/>
+      <c r="L50" s="69"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
-      <c r="Q50" s="68"/>
+      <c r="Q50" s="69"/>
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
       <c r="T50" s="22"/>
       <c r="U50" s="22"/>
-      <c r="V50" s="68"/>
+      <c r="V50" s="69"/>
       <c r="W50" s="21"/>
       <c r="X50" s="21"/>
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
       <c r="AA50" s="20"/>
-      <c r="AB50" s="268"/>
-      <c r="AC50" s="269"/>
-      <c r="AD50" s="269"/>
-      <c r="AE50" s="270"/>
+      <c r="AB50" s="281"/>
+      <c r="AC50" s="282"/>
+      <c r="AD50" s="282"/>
+      <c r="AE50" s="283"/>
     </row>
     <row r="51" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="17"/>
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="124"/>
-      <c r="O51" s="124"/>
-      <c r="P51" s="124"/>
-      <c r="Q51" s="124"/>
-      <c r="R51" s="124"/>
-      <c r="S51" s="124"/>
-      <c r="T51" s="124"/>
-      <c r="U51" s="124"/>
-      <c r="V51" s="124"/>
-      <c r="W51" s="124"/>
-      <c r="X51" s="124"/>
-      <c r="Y51" s="124"/>
-      <c r="Z51" s="124"/>
-      <c r="AB51" s="271" t="s">
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127"/>
+      <c r="N51" s="127"/>
+      <c r="O51" s="127"/>
+      <c r="P51" s="127"/>
+      <c r="Q51" s="127"/>
+      <c r="R51" s="127"/>
+      <c r="S51" s="127"/>
+      <c r="T51" s="127"/>
+      <c r="U51" s="127"/>
+      <c r="V51" s="127"/>
+      <c r="W51" s="127"/>
+      <c r="X51" s="127"/>
+      <c r="Y51" s="127"/>
+      <c r="Z51" s="127"/>
+      <c r="AB51" s="284" t="s">
         <v>53</v>
       </c>
-      <c r="AC51" s="272"/>
-      <c r="AD51" s="272"/>
-      <c r="AE51" s="273"/>
+      <c r="AC51" s="285"/>
+      <c r="AD51" s="285"/>
+      <c r="AE51" s="286"/>
     </row>
     <row r="52" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A52" s="102">
+      <c r="A52" s="105">
         <v>5</v>
       </c>
-      <c r="B52" s="89">
+      <c r="B52" s="92">
         <f>B49+7</f>
         <v>42030</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="89">
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="92">
         <f>B52+1</f>
         <v>42031</v>
       </c>
-      <c r="H52" s="118" t="s">
+      <c r="H52" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="89">
+      <c r="I52" s="121"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="92">
         <f>G52+1</f>
         <v>42032</v>
       </c>
-      <c r="M52" s="118" t="s">
+      <c r="M52" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="89">
+      <c r="N52" s="121"/>
+      <c r="O52" s="121"/>
+      <c r="P52" s="121"/>
+      <c r="Q52" s="92">
         <f>L52+1</f>
         <v>42033</v>
       </c>
-      <c r="R52" s="118" t="s">
+      <c r="R52" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="89">
+      <c r="S52" s="121"/>
+      <c r="T52" s="121"/>
+      <c r="U52" s="121"/>
+      <c r="V52" s="92">
         <f>Q52+1</f>
         <v>42034</v>
       </c>
-      <c r="W52" s="118" t="s">
+      <c r="W52" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
+      <c r="X52" s="121"/>
+      <c r="Y52" s="121"/>
+      <c r="Z52" s="121"/>
       <c r="AA52" s="9"/>
-      <c r="AB52" s="274" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC52" s="275"/>
-      <c r="AD52" s="275"/>
-      <c r="AE52" s="276"/>
+      <c r="AB52" s="287" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC52" s="288"/>
+      <c r="AD52" s="288"/>
+      <c r="AE52" s="289"/>
     </row>
     <row r="53" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A53" s="102"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="118"/>
-      <c r="N53" s="118"/>
-      <c r="O53" s="118"/>
-      <c r="P53" s="118"/>
-      <c r="Q53" s="89"/>
-      <c r="R53" s="118"/>
-      <c r="S53" s="118"/>
-      <c r="T53" s="118"/>
-      <c r="U53" s="118"/>
-      <c r="V53" s="89"/>
-      <c r="W53" s="118"/>
-      <c r="X53" s="118"/>
-      <c r="Y53" s="118"/>
-      <c r="Z53" s="118"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="121"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="121"/>
+      <c r="N53" s="121"/>
+      <c r="O53" s="121"/>
+      <c r="P53" s="121"/>
+      <c r="Q53" s="92"/>
+      <c r="R53" s="121"/>
+      <c r="S53" s="121"/>
+      <c r="T53" s="121"/>
+      <c r="U53" s="121"/>
+      <c r="V53" s="92"/>
+      <c r="W53" s="121"/>
+      <c r="X53" s="121"/>
+      <c r="Y53" s="121"/>
+      <c r="Z53" s="121"/>
       <c r="AA53" s="9"/>
-      <c r="AB53" s="221" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC53" s="222"/>
-      <c r="AD53" s="222"/>
-      <c r="AE53" s="223"/>
+      <c r="AB53" s="234" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC53" s="235"/>
+      <c r="AD53" s="235"/>
+      <c r="AE53" s="236"/>
     </row>
     <row r="54" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A54" s="117">
+      <c r="A54" s="120">
         <v>6</v>
       </c>
-      <c r="B54" s="89">
+      <c r="B54" s="92">
         <f>B52+7</f>
         <v>42037</v>
       </c>
-      <c r="C54" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="104"/>
-      <c r="E54" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="G54" s="89">
+      <c r="C54" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="107"/>
+      <c r="E54" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="92">
         <f>B54+1</f>
         <v>42038</v>
       </c>
-      <c r="H54" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="I54" s="93"/>
-      <c r="J54" s="41" t="s">
+      <c r="H54" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="K54" s="43"/>
-      <c r="L54" s="89">
+      <c r="I54" s="96"/>
+      <c r="J54" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54" s="44"/>
+      <c r="L54" s="92">
         <f>G54+1</f>
         <v>42039</v>
       </c>
-      <c r="M54" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="N54" s="106"/>
-      <c r="O54" s="160" t="s">
-        <v>132</v>
-      </c>
-      <c r="P54" s="161"/>
-      <c r="Q54" s="89">
+      <c r="M54" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="N54" s="109"/>
+      <c r="O54" s="173" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" s="174"/>
+      <c r="Q54" s="92">
         <f>L54+1</f>
         <v>42040</v>
       </c>
-      <c r="R54" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="S54" s="72"/>
-      <c r="T54" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="U54" s="112"/>
-      <c r="V54" s="89">
+      <c r="R54" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="S54" s="73"/>
+      <c r="T54" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="U54" s="115"/>
+      <c r="V54" s="92">
         <f>Q54+1</f>
         <v>42041</v>
       </c>
-      <c r="W54" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="X54" s="91"/>
-      <c r="Y54" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z54" s="110"/>
+      <c r="W54" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="X54" s="94"/>
+      <c r="Y54" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z54" s="113"/>
       <c r="AA54" s="20"/>
-      <c r="AB54" s="221" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC54" s="222"/>
-      <c r="AD54" s="222"/>
-      <c r="AE54" s="223"/>
+      <c r="AB54" s="234" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC54" s="235"/>
+      <c r="AD54" s="235"/>
+      <c r="AE54" s="236"/>
     </row>
     <row r="55" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A55" s="117"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="106"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="N55" s="104"/>
-      <c r="O55" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="P55" s="112"/>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="74"/>
-      <c r="T55" s="160" t="s">
-        <v>132</v>
-      </c>
-      <c r="U55" s="161"/>
-      <c r="V55" s="89"/>
-      <c r="W55" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="X55" s="110"/>
-      <c r="Y55" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z55" s="91"/>
+      <c r="A55" s="120"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="109"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="N55" s="107"/>
+      <c r="O55" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="P55" s="115"/>
+      <c r="Q55" s="92"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="173" t="s">
+        <v>124</v>
+      </c>
+      <c r="U55" s="174"/>
+      <c r="V55" s="92"/>
+      <c r="W55" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="X55" s="113"/>
+      <c r="Y55" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z55" s="94"/>
       <c r="AA55" s="20"/>
-      <c r="AB55" s="251" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC55" s="252"/>
-      <c r="AD55" s="252"/>
-      <c r="AE55" s="253"/>
+      <c r="AB55" s="264" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC55" s="265"/>
+      <c r="AD55" s="265"/>
+      <c r="AE55" s="266"/>
     </row>
     <row r="56" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A56" s="116">
+      <c r="A56" s="119">
         <v>7</v>
       </c>
-      <c r="B56" s="89">
+      <c r="B56" s="92">
         <f>B54+7</f>
         <v>42044</v>
       </c>
@@ -6168,7 +6663,7 @@
       <c r="D56" s="21"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
-      <c r="G56" s="89">
+      <c r="G56" s="92">
         <f>B56+1</f>
         <v>42045</v>
       </c>
@@ -6176,7 +6671,7 @@
       <c r="I56" s="21"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
-      <c r="L56" s="89">
+      <c r="L56" s="92">
         <f>G56+1</f>
         <v>42046</v>
       </c>
@@ -6184,7 +6679,7 @@
       <c r="N56" s="21"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
-      <c r="Q56" s="89">
+      <c r="Q56" s="92">
         <f>L56+1</f>
         <v>42047</v>
       </c>
@@ -6192,310 +6687,310 @@
       <c r="S56" s="21"/>
       <c r="T56" s="22"/>
       <c r="U56" s="22"/>
-      <c r="V56" s="89">
+      <c r="V56" s="92">
         <f>Q56+1</f>
         <v>42048</v>
       </c>
-      <c r="W56" s="178" t="s">
+      <c r="W56" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="X56" s="179"/>
-      <c r="Y56" s="179"/>
-      <c r="Z56" s="180"/>
+      <c r="X56" s="192"/>
+      <c r="Y56" s="192"/>
+      <c r="Z56" s="193"/>
       <c r="AA56" s="9"/>
-      <c r="AB56" s="254" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC56" s="255"/>
-      <c r="AD56" s="255"/>
-      <c r="AE56" s="256"/>
+      <c r="AB56" s="267" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC56" s="268"/>
+      <c r="AD56" s="268"/>
+      <c r="AE56" s="269"/>
     </row>
     <row r="57" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A57" s="116"/>
-      <c r="B57" s="89"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="92"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
-      <c r="G57" s="89"/>
+      <c r="G57" s="92"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
-      <c r="L57" s="89"/>
+      <c r="L57" s="92"/>
       <c r="M57" s="21"/>
       <c r="N57" s="21"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
-      <c r="Q57" s="89"/>
+      <c r="Q57" s="92"/>
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
       <c r="T57" s="22"/>
       <c r="U57" s="22"/>
-      <c r="V57" s="89"/>
-      <c r="W57" s="181"/>
-      <c r="X57" s="182"/>
-      <c r="Y57" s="182"/>
-      <c r="Z57" s="183"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="194"/>
+      <c r="X57" s="195"/>
+      <c r="Y57" s="195"/>
+      <c r="Z57" s="196"/>
       <c r="AA57" s="9"/>
-      <c r="AB57" s="25"/>
-      <c r="AC57" s="25"/>
-      <c r="AD57" s="25"/>
-      <c r="AE57" s="25"/>
+      <c r="AB57" s="24"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24"/>
+      <c r="AE57" s="24"/>
     </row>
     <row r="58" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A58" s="116">
+      <c r="A58" s="119">
         <v>8</v>
       </c>
-      <c r="B58" s="89">
+      <c r="B58" s="92">
         <f>B56+7</f>
         <v>42051</v>
       </c>
-      <c r="C58" s="115" t="s">
+      <c r="C58" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="89">
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="92">
         <f>B58+1</f>
         <v>42052</v>
       </c>
-      <c r="H58" s="115" t="s">
+      <c r="H58" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="I58" s="115"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115"/>
-      <c r="L58" s="89">
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="118"/>
+      <c r="L58" s="92">
         <f>G58+1</f>
         <v>42053</v>
       </c>
-      <c r="M58" s="115" t="s">
+      <c r="M58" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="115"/>
-      <c r="O58" s="115"/>
-      <c r="P58" s="115"/>
-      <c r="Q58" s="89">
+      <c r="N58" s="118"/>
+      <c r="O58" s="118"/>
+      <c r="P58" s="118"/>
+      <c r="Q58" s="92">
         <f>L58+1</f>
         <v>42054</v>
       </c>
-      <c r="R58" s="115" t="s">
+      <c r="R58" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="S58" s="115"/>
-      <c r="T58" s="115"/>
-      <c r="U58" s="115"/>
-      <c r="V58" s="89">
+      <c r="S58" s="118"/>
+      <c r="T58" s="118"/>
+      <c r="U58" s="118"/>
+      <c r="V58" s="92">
         <f>Q58+1</f>
         <v>42055</v>
       </c>
-      <c r="W58" s="115" t="s">
+      <c r="W58" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="X58" s="115"/>
-      <c r="Y58" s="115"/>
-      <c r="Z58" s="115"/>
+      <c r="X58" s="118"/>
+      <c r="Y58" s="118"/>
+      <c r="Z58" s="118"/>
       <c r="AA58" s="20"/>
-      <c r="AB58" s="239" t="s">
+      <c r="AB58" s="252" t="s">
         <v>44</v>
       </c>
-      <c r="AC58" s="240"/>
-      <c r="AD58" s="240"/>
-      <c r="AE58" s="241"/>
+      <c r="AC58" s="253"/>
+      <c r="AD58" s="253"/>
+      <c r="AE58" s="254"/>
     </row>
     <row r="59" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A59" s="116"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="115"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="115"/>
-      <c r="N59" s="115"/>
-      <c r="O59" s="115"/>
-      <c r="P59" s="115"/>
-      <c r="Q59" s="89"/>
-      <c r="R59" s="115"/>
-      <c r="S59" s="115"/>
-      <c r="T59" s="115"/>
-      <c r="U59" s="115"/>
-      <c r="V59" s="89"/>
-      <c r="W59" s="115"/>
-      <c r="X59" s="115"/>
-      <c r="Y59" s="115"/>
-      <c r="Z59" s="115"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="118"/>
+      <c r="N59" s="118"/>
+      <c r="O59" s="118"/>
+      <c r="P59" s="118"/>
+      <c r="Q59" s="92"/>
+      <c r="R59" s="118"/>
+      <c r="S59" s="118"/>
+      <c r="T59" s="118"/>
+      <c r="U59" s="118"/>
+      <c r="V59" s="92"/>
+      <c r="W59" s="118"/>
+      <c r="X59" s="118"/>
+      <c r="Y59" s="118"/>
+      <c r="Z59" s="118"/>
       <c r="AA59" s="20"/>
-      <c r="AB59" s="242"/>
-      <c r="AC59" s="243"/>
-      <c r="AD59" s="243"/>
-      <c r="AE59" s="244"/>
+      <c r="AB59" s="255"/>
+      <c r="AC59" s="256"/>
+      <c r="AD59" s="256"/>
+      <c r="AE59" s="257"/>
     </row>
     <row r="60" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A60" s="17"/>
-      <c r="B60" s="124" t="s">
+      <c r="B60" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="124"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="124"/>
-      <c r="J60" s="124"/>
-      <c r="K60" s="124"/>
-      <c r="L60" s="124"/>
-      <c r="M60" s="124"/>
-      <c r="N60" s="124"/>
-      <c r="O60" s="124"/>
-      <c r="P60" s="124"/>
-      <c r="Q60" s="124"/>
-      <c r="R60" s="124"/>
-      <c r="S60" s="124"/>
-      <c r="T60" s="124"/>
-      <c r="U60" s="124"/>
-      <c r="V60" s="124"/>
-      <c r="W60" s="124"/>
-      <c r="X60" s="124"/>
-      <c r="Y60" s="124"/>
-      <c r="Z60" s="124"/>
-      <c r="AB60" s="233" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC60" s="234"/>
-      <c r="AD60" s="234"/>
-      <c r="AE60" s="235"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="127"/>
+      <c r="L60" s="127"/>
+      <c r="M60" s="127"/>
+      <c r="N60" s="127"/>
+      <c r="O60" s="127"/>
+      <c r="P60" s="127"/>
+      <c r="Q60" s="127"/>
+      <c r="R60" s="127"/>
+      <c r="S60" s="127"/>
+      <c r="T60" s="127"/>
+      <c r="U60" s="127"/>
+      <c r="V60" s="127"/>
+      <c r="W60" s="127"/>
+      <c r="X60" s="127"/>
+      <c r="Y60" s="127"/>
+      <c r="Z60" s="127"/>
+      <c r="AB60" s="246" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC60" s="247"/>
+      <c r="AD60" s="247"/>
+      <c r="AE60" s="248"/>
     </row>
     <row r="61" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A61" s="117">
+      <c r="A61" s="120">
         <v>9</v>
       </c>
-      <c r="B61" s="89">
+      <c r="B61" s="92">
         <f>B58+7</f>
         <v>42058</v>
       </c>
-      <c r="C61" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="104"/>
-      <c r="E61" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="G61" s="89">
+      <c r="C61" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="107"/>
+      <c r="E61" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="92">
         <f>B61+1</f>
         <v>42059</v>
       </c>
-      <c r="H61" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="I61" s="93"/>
-      <c r="J61" s="41" t="s">
+      <c r="H61" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="K61" s="43"/>
-      <c r="L61" s="89">
+      <c r="I61" s="96"/>
+      <c r="J61" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="K61" s="44"/>
+      <c r="L61" s="92">
         <f>G61+1</f>
         <v>42060</v>
       </c>
-      <c r="M61" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="N61" s="106"/>
-      <c r="O61" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="120">
+      <c r="M61" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="N61" s="109"/>
+      <c r="O61" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="123">
         <f>L61+1</f>
         <v>42061</v>
       </c>
-      <c r="R61" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="S61" s="72"/>
-      <c r="T61" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="U61" s="93"/>
-      <c r="V61" s="89">
+      <c r="R61" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="S61" s="73"/>
+      <c r="T61" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="U61" s="96"/>
+      <c r="V61" s="92">
         <f>Q61+1</f>
         <v>42062</v>
       </c>
-      <c r="W61" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="X61" s="91"/>
-      <c r="Y61" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z61" s="110"/>
+      <c r="W61" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="X61" s="94"/>
+      <c r="Y61" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z61" s="113"/>
       <c r="AA61" s="9"/>
-      <c r="AB61" s="236" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC61" s="237"/>
-      <c r="AD61" s="237"/>
-      <c r="AE61" s="238"/>
+      <c r="AB61" s="249" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC61" s="250"/>
+      <c r="AD61" s="250"/>
+      <c r="AE61" s="251"/>
     </row>
     <row r="62" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A62" s="117"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="106"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="89"/>
-      <c r="M62" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="N62" s="104"/>
-      <c r="O62" s="94"/>
-      <c r="P62" s="95"/>
-      <c r="Q62" s="121"/>
-      <c r="R62" s="73"/>
-      <c r="S62" s="74"/>
-      <c r="T62" s="94"/>
-      <c r="U62" s="95"/>
-      <c r="V62" s="89"/>
-      <c r="W62" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="X62" s="110"/>
-      <c r="Y62" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z62" s="91"/>
+      <c r="A62" s="120"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="109"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="N62" s="107"/>
+      <c r="O62" s="97"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="124"/>
+      <c r="R62" s="74"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="97"/>
+      <c r="U62" s="98"/>
+      <c r="V62" s="92"/>
+      <c r="W62" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="X62" s="113"/>
+      <c r="Y62" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z62" s="94"/>
       <c r="AA62" s="9"/>
-      <c r="AB62" s="215" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC62" s="216"/>
-      <c r="AD62" s="216"/>
-      <c r="AE62" s="217"/>
+      <c r="AB62" s="228" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC62" s="229"/>
+      <c r="AD62" s="229"/>
+      <c r="AE62" s="230"/>
     </row>
     <row r="63" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A63" s="116">
+      <c r="A63" s="119">
         <v>10</v>
       </c>
-      <c r="B63" s="89">
+      <c r="B63" s="92">
         <f>B61+7</f>
         <v>42065</v>
       </c>
@@ -6503,7 +6998,7 @@
       <c r="D63" s="21"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
-      <c r="G63" s="89">
+      <c r="G63" s="92">
         <f>B63+1</f>
         <v>42066</v>
       </c>
@@ -6511,7 +7006,7 @@
       <c r="I63" s="21"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
-      <c r="L63" s="89">
+      <c r="L63" s="92">
         <f>G63+1</f>
         <v>42067</v>
       </c>
@@ -6519,7 +7014,7 @@
       <c r="N63" s="21"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
-      <c r="Q63" s="89">
+      <c r="Q63" s="92">
         <f>L63+1</f>
         <v>42068</v>
       </c>
@@ -6527,123 +7022,123 @@
       <c r="S63" s="21"/>
       <c r="T63" s="22"/>
       <c r="U63" s="22"/>
-      <c r="V63" s="89">
+      <c r="V63" s="92">
         <f>Q63+1</f>
         <v>42069</v>
       </c>
-      <c r="W63" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="X63" s="91"/>
-      <c r="Y63" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z63" s="110"/>
+      <c r="W63" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="X63" s="94"/>
+      <c r="Y63" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z63" s="113"/>
       <c r="AA63" s="9"/>
-      <c r="AB63" s="218" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC63" s="219"/>
-      <c r="AD63" s="219"/>
-      <c r="AE63" s="220"/>
+      <c r="AB63" s="231" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC63" s="232"/>
+      <c r="AD63" s="232"/>
+      <c r="AE63" s="233"/>
     </row>
     <row r="64" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A64" s="116"/>
-      <c r="B64" s="89"/>
+      <c r="A64" s="119"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
-      <c r="G64" s="89"/>
+      <c r="G64" s="92"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
-      <c r="L64" s="89"/>
+      <c r="L64" s="92"/>
       <c r="M64" s="21"/>
       <c r="N64" s="21"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
-      <c r="Q64" s="89"/>
+      <c r="Q64" s="92"/>
       <c r="R64" s="21"/>
       <c r="S64" s="21"/>
       <c r="T64" s="22"/>
       <c r="U64" s="22"/>
-      <c r="V64" s="89"/>
-      <c r="W64" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="X64" s="110"/>
-      <c r="Y64" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z64" s="91"/>
+      <c r="V64" s="92"/>
+      <c r="W64" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="X64" s="113"/>
+      <c r="Y64" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z64" s="94"/>
       <c r="AA64" s="9"/>
     </row>
     <row r="65" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A65" s="117">
+      <c r="A65" s="120">
         <v>11</v>
       </c>
-      <c r="B65" s="89">
+      <c r="B65" s="92">
         <f>B63+7</f>
         <v>42072</v>
       </c>
-      <c r="C65" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="104"/>
-      <c r="E65" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="F65" s="80"/>
-      <c r="G65" s="89">
+      <c r="C65" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="107"/>
+      <c r="E65" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="83"/>
+      <c r="G65" s="92">
         <f>B65+1</f>
         <v>42073</v>
       </c>
-      <c r="H65" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="I65" s="93"/>
-      <c r="J65" s="41" t="s">
+      <c r="H65" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="K65" s="43"/>
-      <c r="L65" s="89">
+      <c r="I65" s="96"/>
+      <c r="J65" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="K65" s="44"/>
+      <c r="L65" s="92">
         <f>G65+1</f>
         <v>42074</v>
       </c>
-      <c r="M65" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="N65" s="106"/>
-      <c r="O65" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="P65" s="80"/>
-      <c r="Q65" s="89">
+      <c r="M65" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="N65" s="109"/>
+      <c r="O65" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="P65" s="166"/>
+      <c r="Q65" s="92">
         <f>L65+1</f>
         <v>42075</v>
       </c>
-      <c r="R65" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="S65" s="72"/>
-      <c r="T65" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="U65" s="93"/>
-      <c r="V65" s="89">
+      <c r="R65" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="S65" s="162"/>
+      <c r="T65" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="U65" s="96"/>
+      <c r="V65" s="92">
         <f>Q65+1</f>
         <v>42076</v>
       </c>
-      <c r="W65" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="X65" s="91"/>
-      <c r="Y65" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z65" s="110"/>
+      <c r="W65" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="X65" s="94"/>
+      <c r="Y65" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z65" s="113"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
@@ -6651,142 +7146,142 @@
       <c r="AE65" s="9"/>
     </row>
     <row r="66" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A66" s="117"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="106"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="89"/>
-      <c r="M66" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="N66" s="104"/>
-      <c r="O66" s="81"/>
-      <c r="P66" s="82"/>
-      <c r="Q66" s="89"/>
-      <c r="R66" s="73"/>
-      <c r="S66" s="74"/>
-      <c r="T66" s="94"/>
-      <c r="U66" s="95"/>
-      <c r="V66" s="89"/>
-      <c r="W66" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="X66" s="110"/>
-      <c r="Y66" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z66" s="91"/>
+      <c r="A66" s="120"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="109"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="N66" s="107"/>
+      <c r="O66" s="167"/>
+      <c r="P66" s="168"/>
+      <c r="Q66" s="92"/>
+      <c r="R66" s="163"/>
+      <c r="S66" s="164"/>
+      <c r="T66" s="97"/>
+      <c r="U66" s="98"/>
+      <c r="V66" s="92"/>
+      <c r="W66" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="X66" s="113"/>
+      <c r="Y66" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z66" s="94"/>
       <c r="AA66" s="20"/>
-      <c r="AB66" s="184" t="s">
+      <c r="AB66" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="AC66" s="185"/>
-      <c r="AD66" s="185"/>
-      <c r="AE66" s="186"/>
+      <c r="AC66" s="198"/>
+      <c r="AD66" s="198"/>
+      <c r="AE66" s="199"/>
     </row>
     <row r="67" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A67" s="102">
+      <c r="A67" s="105">
         <v>12</v>
       </c>
-      <c r="B67" s="89">
+      <c r="B67" s="92">
         <f>B65+7</f>
         <v>42079</v>
       </c>
-      <c r="C67" s="119" t="s">
+      <c r="C67" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="119"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="89">
+      <c r="D67" s="122"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="122"/>
+      <c r="G67" s="92">
         <f>B67+1</f>
         <v>42080</v>
       </c>
-      <c r="H67" s="119" t="s">
+      <c r="H67" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="I67" s="119"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="89">
+      <c r="I67" s="122"/>
+      <c r="J67" s="122"/>
+      <c r="K67" s="122"/>
+      <c r="L67" s="92">
         <f>G67+1</f>
         <v>42081</v>
       </c>
-      <c r="M67" s="119" t="s">
+      <c r="M67" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="N67" s="119"/>
-      <c r="O67" s="119"/>
-      <c r="P67" s="119"/>
-      <c r="Q67" s="89">
+      <c r="N67" s="122"/>
+      <c r="O67" s="122"/>
+      <c r="P67" s="122"/>
+      <c r="Q67" s="92">
         <f>L67+1</f>
         <v>42082</v>
       </c>
-      <c r="R67" s="119" t="s">
+      <c r="R67" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="S67" s="119"/>
-      <c r="T67" s="119"/>
-      <c r="U67" s="119"/>
-      <c r="V67" s="89">
+      <c r="S67" s="122"/>
+      <c r="T67" s="122"/>
+      <c r="U67" s="122"/>
+      <c r="V67" s="92">
         <f>Q67+1</f>
         <v>42083</v>
       </c>
-      <c r="W67" s="119" t="s">
+      <c r="W67" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="X67" s="119"/>
-      <c r="Y67" s="119"/>
-      <c r="Z67" s="119"/>
+      <c r="X67" s="122"/>
+      <c r="Y67" s="122"/>
+      <c r="Z67" s="122"/>
       <c r="AA67" s="9"/>
-      <c r="AB67" s="187"/>
-      <c r="AC67" s="188"/>
-      <c r="AD67" s="188"/>
-      <c r="AE67" s="189"/>
+      <c r="AB67" s="200"/>
+      <c r="AC67" s="201"/>
+      <c r="AD67" s="201"/>
+      <c r="AE67" s="202"/>
     </row>
     <row r="68" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A68" s="102"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="119"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="119"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="119"/>
-      <c r="J68" s="119"/>
-      <c r="K68" s="119"/>
-      <c r="L68" s="89"/>
-      <c r="M68" s="119"/>
-      <c r="N68" s="119"/>
-      <c r="O68" s="119"/>
-      <c r="P68" s="119"/>
-      <c r="Q68" s="89"/>
-      <c r="R68" s="119"/>
-      <c r="S68" s="119"/>
-      <c r="T68" s="119"/>
-      <c r="U68" s="119"/>
-      <c r="V68" s="89"/>
-      <c r="W68" s="119"/>
-      <c r="X68" s="119"/>
-      <c r="Y68" s="119"/>
-      <c r="Z68" s="119"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="122"/>
+      <c r="I68" s="122"/>
+      <c r="J68" s="122"/>
+      <c r="K68" s="122"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="122"/>
+      <c r="N68" s="122"/>
+      <c r="O68" s="122"/>
+      <c r="P68" s="122"/>
+      <c r="Q68" s="92"/>
+      <c r="R68" s="122"/>
+      <c r="S68" s="122"/>
+      <c r="T68" s="122"/>
+      <c r="U68" s="122"/>
+      <c r="V68" s="92"/>
+      <c r="W68" s="122"/>
+      <c r="X68" s="122"/>
+      <c r="Y68" s="122"/>
+      <c r="Z68" s="122"/>
       <c r="AA68" s="9"/>
     </row>
     <row r="69" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A69" s="116">
+      <c r="A69" s="119">
         <v>13</v>
       </c>
-      <c r="B69" s="89">
+      <c r="B69" s="92">
         <f>B67+7</f>
         <v>42086</v>
       </c>
@@ -6794,7 +7289,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
-      <c r="G69" s="89">
+      <c r="G69" s="92">
         <f>B69+1</f>
         <v>42087</v>
       </c>
@@ -6802,7 +7297,7 @@
       <c r="I69" s="21"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
-      <c r="L69" s="89">
+      <c r="L69" s="92">
         <f>G69+1</f>
         <v>42088</v>
       </c>
@@ -6810,7 +7305,7 @@
       <c r="N69" s="21"/>
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
-      <c r="Q69" s="89">
+      <c r="Q69" s="92">
         <f>L69+1</f>
         <v>42089</v>
       </c>
@@ -6818,7 +7313,7 @@
       <c r="S69" s="21"/>
       <c r="T69" s="22"/>
       <c r="U69" s="22"/>
-      <c r="V69" s="89">
+      <c r="V69" s="92">
         <f>Q69+1</f>
         <v>42090</v>
       </c>
@@ -6827,218 +7322,218 @@
       <c r="Y69" s="22"/>
       <c r="Z69" s="22"/>
       <c r="AA69" s="20"/>
-      <c r="AB69" s="239" t="s">
+      <c r="AB69" s="252" t="s">
         <v>43</v>
       </c>
-      <c r="AC69" s="240"/>
-      <c r="AD69" s="240"/>
-      <c r="AE69" s="241"/>
+      <c r="AC69" s="253"/>
+      <c r="AD69" s="253"/>
+      <c r="AE69" s="254"/>
     </row>
     <row r="70" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A70" s="116"/>
-      <c r="B70" s="89"/>
+      <c r="A70" s="119"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
-      <c r="G70" s="89"/>
+      <c r="G70" s="92"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
-      <c r="L70" s="89"/>
+      <c r="L70" s="92"/>
       <c r="M70" s="21"/>
       <c r="N70" s="21"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
-      <c r="Q70" s="89"/>
+      <c r="Q70" s="92"/>
       <c r="R70" s="21"/>
       <c r="S70" s="21"/>
       <c r="T70" s="22"/>
       <c r="U70" s="22"/>
-      <c r="V70" s="89"/>
+      <c r="V70" s="92"/>
       <c r="W70" s="21"/>
       <c r="X70" s="21"/>
       <c r="Y70" s="22"/>
       <c r="Z70" s="22"/>
       <c r="AA70" s="20"/>
-      <c r="AB70" s="242"/>
-      <c r="AC70" s="243"/>
-      <c r="AD70" s="243"/>
-      <c r="AE70" s="244"/>
+      <c r="AB70" s="255"/>
+      <c r="AC70" s="256"/>
+      <c r="AD70" s="256"/>
+      <c r="AE70" s="257"/>
     </row>
     <row r="71" spans="1:32" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A71" s="17"/>
-      <c r="B71" s="124" t="s">
+      <c r="B71" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="124"/>
-      <c r="M71" s="124"/>
-      <c r="N71" s="124"/>
-      <c r="O71" s="124"/>
-      <c r="P71" s="124"/>
-      <c r="Q71" s="124"/>
-      <c r="R71" s="124"/>
-      <c r="S71" s="124"/>
-      <c r="T71" s="124"/>
-      <c r="U71" s="124"/>
-      <c r="V71" s="124"/>
-      <c r="W71" s="124"/>
-      <c r="X71" s="124"/>
-      <c r="Y71" s="124"/>
-      <c r="Z71" s="124"/>
-      <c r="AB71" s="245" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC71" s="246"/>
-      <c r="AD71" s="246"/>
-      <c r="AE71" s="247"/>
+      <c r="C71" s="127"/>
+      <c r="D71" s="127"/>
+      <c r="E71" s="127"/>
+      <c r="F71" s="127"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="127"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="127"/>
+      <c r="K71" s="127"/>
+      <c r="L71" s="127"/>
+      <c r="M71" s="127"/>
+      <c r="N71" s="127"/>
+      <c r="O71" s="127"/>
+      <c r="P71" s="127"/>
+      <c r="Q71" s="127"/>
+      <c r="R71" s="127"/>
+      <c r="S71" s="127"/>
+      <c r="T71" s="127"/>
+      <c r="U71" s="127"/>
+      <c r="V71" s="127"/>
+      <c r="W71" s="127"/>
+      <c r="X71" s="127"/>
+      <c r="Y71" s="127"/>
+      <c r="Z71" s="127"/>
+      <c r="AB71" s="258" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC71" s="259"/>
+      <c r="AD71" s="259"/>
+      <c r="AE71" s="260"/>
     </row>
     <row r="72" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A72" s="102">
+      <c r="A72" s="105">
         <v>14</v>
       </c>
-      <c r="B72" s="89">
+      <c r="B72" s="92">
         <f>B69+7</f>
         <v>42093</v>
       </c>
-      <c r="C72" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" s="104"/>
-      <c r="E72" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="F72" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" s="89">
+      <c r="C72" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="107"/>
+      <c r="E72" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="92">
         <f>B72+1</f>
         <v>42094</v>
       </c>
-      <c r="H72" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="I72" s="104"/>
-      <c r="J72" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="K72" s="104"/>
-      <c r="L72" s="89">
+      <c r="H72" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="I72" s="107"/>
+      <c r="J72" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="K72" s="107"/>
+      <c r="L72" s="92">
         <f>G72+1</f>
         <v>42095</v>
       </c>
-      <c r="M72" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="N72" s="106"/>
-      <c r="O72" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="P72" s="72"/>
-      <c r="Q72" s="89">
+      <c r="M72" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="N72" s="109"/>
+      <c r="O72" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="92">
         <f>L72+1</f>
         <v>42096</v>
       </c>
-      <c r="R72" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="S72" s="125"/>
-      <c r="T72" s="125"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="89">
+      <c r="R72" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="S72" s="128"/>
+      <c r="T72" s="128"/>
+      <c r="U72" s="62"/>
+      <c r="V72" s="92">
         <f>Q72+1</f>
         <v>42097</v>
       </c>
-      <c r="W72" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="X72" s="91"/>
-      <c r="Y72" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z72" s="110"/>
+      <c r="W72" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="X72" s="94"/>
+      <c r="Y72" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z72" s="113"/>
       <c r="AA72" s="9"/>
-      <c r="AB72" s="248" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC72" s="249"/>
-      <c r="AD72" s="249"/>
-      <c r="AE72" s="250"/>
+      <c r="AB72" s="261" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC72" s="262"/>
+      <c r="AD72" s="262"/>
+      <c r="AE72" s="263"/>
     </row>
     <row r="73" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A73" s="102"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="106"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="I73" s="125"/>
-      <c r="J73" s="125"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="89"/>
-      <c r="M73" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="N73" s="104"/>
-      <c r="O73" s="73"/>
-      <c r="P73" s="74"/>
-      <c r="Q73" s="89"/>
-      <c r="R73" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="S73" s="104"/>
-      <c r="T73" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="U73" s="104"/>
-      <c r="V73" s="89"/>
-      <c r="W73" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="X73" s="110"/>
-      <c r="Y73" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z73" s="91"/>
+      <c r="A73" s="105"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="109"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I73" s="128"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="N73" s="107"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="92"/>
+      <c r="R73" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S73" s="107"/>
+      <c r="T73" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="U73" s="107"/>
+      <c r="V73" s="92"/>
+      <c r="W73" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="X73" s="113"/>
+      <c r="Y73" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z73" s="94"/>
       <c r="AA73" s="9"/>
-      <c r="AB73" s="224" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC73" s="225"/>
-      <c r="AD73" s="225"/>
-      <c r="AE73" s="226"/>
+      <c r="AB73" s="237" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC73" s="238"/>
+      <c r="AD73" s="238"/>
+      <c r="AE73" s="239"/>
     </row>
     <row r="74" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A74" s="102">
+      <c r="A74" s="105">
         <v>15</v>
       </c>
-      <c r="B74" s="89">
+      <c r="B74" s="92">
         <f>B72+7</f>
         <v>42100</v>
       </c>
-      <c r="C74" s="127" t="s">
+      <c r="C74" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="127"/>
-      <c r="G74" s="89">
+      <c r="D74" s="130"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="130"/>
+      <c r="G74" s="92">
         <f>B74+1</f>
         <v>42101</v>
       </c>
@@ -7046,7 +7541,7 @@
       <c r="I74" s="21"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
-      <c r="L74" s="89">
+      <c r="L74" s="92">
         <f>G74+1</f>
         <v>42102</v>
       </c>
@@ -7054,7 +7549,7 @@
       <c r="N74" s="21"/>
       <c r="O74" s="22"/>
       <c r="P74" s="22"/>
-      <c r="Q74" s="89">
+      <c r="Q74" s="92">
         <f>L74+1</f>
         <v>42103</v>
       </c>
@@ -7062,7 +7557,7 @@
       <c r="S74" s="21"/>
       <c r="T74" s="22"/>
       <c r="U74" s="22"/>
-      <c r="V74" s="89">
+      <c r="V74" s="92">
         <f>Q74+1</f>
         <v>42104</v>
       </c>
@@ -7071,313 +7566,313 @@
       <c r="Y74" s="22"/>
       <c r="Z74" s="22"/>
       <c r="AA74" s="20"/>
-      <c r="AB74" s="224" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC74" s="225"/>
-      <c r="AD74" s="225"/>
-      <c r="AE74" s="226"/>
+      <c r="AB74" s="237" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC74" s="238"/>
+      <c r="AD74" s="238"/>
+      <c r="AE74" s="239"/>
     </row>
     <row r="75" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A75" s="102"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="127"/>
-      <c r="G75" s="89"/>
+      <c r="A75" s="105"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="130"/>
+      <c r="G75" s="92"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
-      <c r="L75" s="89"/>
+      <c r="L75" s="92"/>
       <c r="M75" s="21"/>
       <c r="N75" s="21"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
-      <c r="Q75" s="89"/>
+      <c r="Q75" s="92"/>
       <c r="R75" s="21"/>
       <c r="S75" s="21"/>
       <c r="T75" s="22"/>
       <c r="U75" s="22"/>
-      <c r="V75" s="89"/>
+      <c r="V75" s="92"/>
       <c r="W75" s="21"/>
       <c r="X75" s="21"/>
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
       <c r="AA75" s="20"/>
-      <c r="AB75" s="227" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC75" s="228"/>
-      <c r="AD75" s="228"/>
-      <c r="AE75" s="229"/>
+      <c r="AB75" s="240" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC75" s="241"/>
+      <c r="AD75" s="241"/>
+      <c r="AE75" s="242"/>
     </row>
     <row r="76" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A76" s="116">
+      <c r="A76" s="119">
         <v>16</v>
       </c>
-      <c r="B76" s="89">
+      <c r="B76" s="92">
         <f>B74+7</f>
         <v>42107</v>
       </c>
-      <c r="C76" s="115" t="s">
+      <c r="C76" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="115"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
-      <c r="G76" s="89">
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="92">
         <f>B76+1</f>
         <v>42108</v>
       </c>
-      <c r="H76" s="115" t="s">
+      <c r="H76" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="I76" s="115"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="115"/>
-      <c r="L76" s="89">
+      <c r="I76" s="118"/>
+      <c r="J76" s="118"/>
+      <c r="K76" s="118"/>
+      <c r="L76" s="92">
         <f>G76+1</f>
         <v>42109</v>
       </c>
-      <c r="M76" s="115" t="s">
+      <c r="M76" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="N76" s="115"/>
-      <c r="O76" s="115"/>
-      <c r="P76" s="115"/>
-      <c r="Q76" s="89">
+      <c r="N76" s="118"/>
+      <c r="O76" s="118"/>
+      <c r="P76" s="118"/>
+      <c r="Q76" s="92">
         <f>L76+1</f>
         <v>42110</v>
       </c>
-      <c r="R76" s="115" t="s">
+      <c r="R76" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="S76" s="115"/>
-      <c r="T76" s="115"/>
-      <c r="U76" s="115"/>
-      <c r="V76" s="89">
+      <c r="S76" s="118"/>
+      <c r="T76" s="118"/>
+      <c r="U76" s="118"/>
+      <c r="V76" s="92">
         <f>Q76+1</f>
         <v>42111</v>
       </c>
-      <c r="W76" s="115" t="s">
+      <c r="W76" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="X76" s="115"/>
-      <c r="Y76" s="115"/>
-      <c r="Z76" s="115"/>
+      <c r="X76" s="118"/>
+      <c r="Y76" s="118"/>
+      <c r="Z76" s="118"/>
       <c r="AA76" s="9"/>
-      <c r="AB76" s="227" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC76" s="228"/>
-      <c r="AD76" s="228"/>
-      <c r="AE76" s="229"/>
+      <c r="AB76" s="240" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC76" s="241"/>
+      <c r="AD76" s="241"/>
+      <c r="AE76" s="242"/>
     </row>
     <row r="77" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A77" s="116"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="115"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="115"/>
-      <c r="L77" s="89"/>
-      <c r="M77" s="115"/>
-      <c r="N77" s="115"/>
-      <c r="O77" s="115"/>
-      <c r="P77" s="115"/>
-      <c r="Q77" s="89"/>
-      <c r="R77" s="115"/>
-      <c r="S77" s="115"/>
-      <c r="T77" s="115"/>
-      <c r="U77" s="115"/>
-      <c r="V77" s="89"/>
-      <c r="W77" s="115"/>
-      <c r="X77" s="115"/>
-      <c r="Y77" s="115"/>
-      <c r="Z77" s="115"/>
+      <c r="A77" s="119"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="118"/>
+      <c r="I77" s="118"/>
+      <c r="J77" s="118"/>
+      <c r="K77" s="118"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="118"/>
+      <c r="N77" s="118"/>
+      <c r="O77" s="118"/>
+      <c r="P77" s="118"/>
+      <c r="Q77" s="92"/>
+      <c r="R77" s="118"/>
+      <c r="S77" s="118"/>
+      <c r="T77" s="118"/>
+      <c r="U77" s="118"/>
+      <c r="V77" s="92"/>
+      <c r="W77" s="118"/>
+      <c r="X77" s="118"/>
+      <c r="Y77" s="118"/>
+      <c r="Z77" s="118"/>
       <c r="AA77" s="9"/>
-      <c r="AB77" s="230" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC77" s="231"/>
-      <c r="AD77" s="231"/>
-      <c r="AE77" s="232"/>
+      <c r="AB77" s="243" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC77" s="244"/>
+      <c r="AD77" s="244"/>
+      <c r="AE77" s="245"/>
     </row>
     <row r="78" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A78" s="102">
+      <c r="A78" s="105">
         <v>17</v>
       </c>
-      <c r="B78" s="89">
+      <c r="B78" s="92">
         <f>B76+7</f>
         <v>42114</v>
       </c>
-      <c r="C78" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="104"/>
-      <c r="E78" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="43"/>
-      <c r="G78" s="89">
+      <c r="C78" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="107"/>
+      <c r="E78" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="44"/>
+      <c r="G78" s="92">
         <f>B78+1</f>
         <v>42115</v>
       </c>
-      <c r="H78" s="162" t="s">
-        <v>72</v>
-      </c>
-      <c r="I78" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="J78" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="K78" s="112"/>
-      <c r="L78" s="89">
+      <c r="H78" s="175" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="J78" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="K78" s="115"/>
+      <c r="L78" s="92">
         <f>G78+1</f>
         <v>42116</v>
       </c>
-      <c r="M78" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="N78" s="106"/>
-      <c r="O78" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="P78" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q78" s="89">
+      <c r="M78" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="N78" s="109"/>
+      <c r="O78" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="P78" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q78" s="92">
         <f>L78+1</f>
         <v>42117</v>
       </c>
-      <c r="R78" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="S78" s="72"/>
-      <c r="T78" s="113" t="s">
+      <c r="R78" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="U78" s="114"/>
-      <c r="V78" s="89">
+      <c r="S78" s="73"/>
+      <c r="T78" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="U78" s="117"/>
+      <c r="V78" s="92">
         <f>Q78+1</f>
         <v>42118</v>
       </c>
-      <c r="W78" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="X78" s="91"/>
-      <c r="Y78" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z78" s="110"/>
+      <c r="W78" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="X78" s="94"/>
+      <c r="Y78" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z78" s="113"/>
       <c r="AA78" s="9"/>
-      <c r="AB78" s="230" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC78" s="231"/>
-      <c r="AD78" s="231"/>
-      <c r="AE78" s="232"/>
+      <c r="AB78" s="243" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC78" s="244"/>
+      <c r="AD78" s="244"/>
+      <c r="AE78" s="245"/>
       <c r="AF78" s="11"/>
     </row>
     <row r="79" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A79" s="102"/>
-      <c r="B79" s="89"/>
-      <c r="C79" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="106"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="89"/>
-      <c r="H79" s="163"/>
-      <c r="I79" s="123"/>
-      <c r="J79" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="K79" s="114"/>
-      <c r="L79" s="89"/>
-      <c r="M79" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="N79" s="104"/>
-      <c r="O79" s="76"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="89"/>
-      <c r="R79" s="73"/>
-      <c r="S79" s="74"/>
-      <c r="T79" s="111" t="s">
+      <c r="A79" s="105"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="U79" s="112"/>
-      <c r="V79" s="89"/>
-      <c r="W79" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="X79" s="110"/>
-      <c r="Y79" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z79" s="91"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="176"/>
+      <c r="I79" s="126"/>
+      <c r="J79" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="K79" s="117"/>
+      <c r="L79" s="92"/>
+      <c r="M79" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="N79" s="107"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="132"/>
+      <c r="Q79" s="92"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="75"/>
+      <c r="T79" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="U79" s="115"/>
+      <c r="V79" s="92"/>
+      <c r="W79" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="X79" s="113"/>
+      <c r="Y79" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z79" s="94"/>
       <c r="AA79" s="9"/>
-      <c r="AB79" s="221" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC79" s="222"/>
-      <c r="AD79" s="222"/>
-      <c r="AE79" s="223"/>
+      <c r="AB79" s="234" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC79" s="235"/>
+      <c r="AD79" s="235"/>
+      <c r="AE79" s="236"/>
       <c r="AF79" s="11"/>
     </row>
     <row r="80" spans="1:32" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A80" s="17"/>
-      <c r="B80" s="124" t="s">
+      <c r="B80" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="124"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="124"/>
-      <c r="H80" s="124"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="124"/>
-      <c r="K80" s="124"/>
-      <c r="L80" s="124"/>
-      <c r="M80" s="124"/>
-      <c r="N80" s="124"/>
-      <c r="O80" s="124"/>
-      <c r="P80" s="124"/>
-      <c r="Q80" s="124"/>
-      <c r="R80" s="124"/>
-      <c r="S80" s="124"/>
-      <c r="T80" s="124"/>
-      <c r="U80" s="124"/>
-      <c r="V80" s="124"/>
-      <c r="W80" s="124"/>
-      <c r="X80" s="124"/>
-      <c r="Y80" s="124"/>
-      <c r="Z80" s="124"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="127"/>
+      <c r="F80" s="127"/>
+      <c r="G80" s="127"/>
+      <c r="H80" s="127"/>
+      <c r="I80" s="127"/>
+      <c r="J80" s="127"/>
+      <c r="K80" s="127"/>
+      <c r="L80" s="127"/>
+      <c r="M80" s="127"/>
+      <c r="N80" s="127"/>
+      <c r="O80" s="127"/>
+      <c r="P80" s="127"/>
+      <c r="Q80" s="127"/>
+      <c r="R80" s="127"/>
+      <c r="S80" s="127"/>
+      <c r="T80" s="127"/>
+      <c r="U80" s="127"/>
+      <c r="V80" s="127"/>
+      <c r="W80" s="127"/>
+      <c r="X80" s="127"/>
+      <c r="Y80" s="127"/>
+      <c r="Z80" s="127"/>
       <c r="AA80" s="20"/>
-      <c r="AB80" s="221" t="s">
+      <c r="AB80" s="234" t="s">
         <v>46</v>
       </c>
-      <c r="AC80" s="222"/>
-      <c r="AD80" s="222"/>
-      <c r="AE80" s="223"/>
+      <c r="AC80" s="235"/>
+      <c r="AD80" s="235"/>
+      <c r="AE80" s="236"/>
       <c r="AF80" s="11"/>
     </row>
     <row r="81" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A81" s="102">
+      <c r="A81" s="105">
         <v>18</v>
       </c>
-      <c r="B81" s="89">
+      <c r="B81" s="92">
         <f>B78+7</f>
         <v>42121</v>
       </c>
@@ -7385,7 +7880,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
-      <c r="G81" s="89">
+      <c r="G81" s="92">
         <f>B81+1</f>
         <v>42122</v>
       </c>
@@ -7393,7 +7888,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
-      <c r="L81" s="89">
+      <c r="L81" s="92">
         <f>G81+1</f>
         <v>42123</v>
       </c>
@@ -7401,7 +7896,7 @@
       <c r="N81" s="21"/>
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
-      <c r="Q81" s="89">
+      <c r="Q81" s="92">
         <f>L81+1</f>
         <v>42124</v>
       </c>
@@ -7409,177 +7904,177 @@
       <c r="S81" s="21"/>
       <c r="T81" s="22"/>
       <c r="U81" s="22"/>
-      <c r="V81" s="89">
+      <c r="V81" s="92">
         <f>Q81+1</f>
         <v>42125</v>
       </c>
-      <c r="W81" s="127" t="s">
+      <c r="W81" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="X81" s="127"/>
-      <c r="Y81" s="127"/>
-      <c r="Z81" s="127"/>
+      <c r="X81" s="130"/>
+      <c r="Y81" s="130"/>
+      <c r="Z81" s="130"/>
       <c r="AA81" s="9"/>
-      <c r="AB81" s="172" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC81" s="173"/>
-      <c r="AD81" s="173"/>
-      <c r="AE81" s="174"/>
+      <c r="AB81" s="185" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC81" s="186"/>
+      <c r="AD81" s="186"/>
+      <c r="AE81" s="187"/>
       <c r="AF81" s="11"/>
     </row>
     <row r="82" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A82" s="102"/>
-      <c r="B82" s="89"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="92"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
-      <c r="G82" s="89"/>
+      <c r="G82" s="92"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
-      <c r="L82" s="89"/>
+      <c r="L82" s="92"/>
       <c r="M82" s="21"/>
       <c r="N82" s="21"/>
       <c r="O82" s="22"/>
       <c r="P82" s="22"/>
-      <c r="Q82" s="89"/>
+      <c r="Q82" s="92"/>
       <c r="R82" s="21"/>
       <c r="S82" s="21"/>
       <c r="T82" s="22"/>
       <c r="U82" s="22"/>
-      <c r="V82" s="89"/>
-      <c r="W82" s="127"/>
-      <c r="X82" s="127"/>
-      <c r="Y82" s="127"/>
-      <c r="Z82" s="127"/>
+      <c r="V82" s="92"/>
+      <c r="W82" s="130"/>
+      <c r="X82" s="130"/>
+      <c r="Y82" s="130"/>
+      <c r="Z82" s="130"/>
       <c r="AA82" s="9"/>
-      <c r="AB82" s="175" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC82" s="176"/>
-      <c r="AD82" s="176"/>
-      <c r="AE82" s="177"/>
+      <c r="AB82" s="188" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC82" s="189"/>
+      <c r="AD82" s="189"/>
+      <c r="AE82" s="190"/>
       <c r="AF82" s="11"/>
     </row>
     <row r="83" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A83" s="102">
+      <c r="A83" s="105">
         <v>19</v>
       </c>
-      <c r="B83" s="89">
+      <c r="B83" s="92">
         <f>B81+7</f>
         <v>42128</v>
       </c>
-      <c r="C83" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" s="104"/>
-      <c r="E83" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="F83" s="157"/>
-      <c r="G83" s="89">
+      <c r="C83" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="107"/>
+      <c r="E83" s="169" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="170"/>
+      <c r="G83" s="92">
         <f>B83+1</f>
         <v>42129</v>
       </c>
-      <c r="H83" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="I83" s="80"/>
-      <c r="J83" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="K83" s="157"/>
-      <c r="L83" s="89">
+      <c r="H83" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="I83" s="83"/>
+      <c r="J83" s="169" t="s">
+        <v>68</v>
+      </c>
+      <c r="K83" s="170"/>
+      <c r="L83" s="92">
         <f>G83+1</f>
         <v>42130</v>
       </c>
-      <c r="M83" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="N83" s="106"/>
-      <c r="O83" s="156" t="s">
-        <v>126</v>
-      </c>
-      <c r="P83" s="157"/>
-      <c r="Q83" s="89">
+      <c r="M83" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="N83" s="109"/>
+      <c r="O83" s="169" t="s">
+        <v>118</v>
+      </c>
+      <c r="P83" s="170"/>
+      <c r="Q83" s="92">
         <f>L83+1</f>
         <v>42131</v>
       </c>
-      <c r="R83" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="S83" s="91"/>
-      <c r="T83" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="U83" s="91"/>
-      <c r="V83" s="89">
+      <c r="R83" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="S83" s="94"/>
+      <c r="T83" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U83" s="94"/>
+      <c r="V83" s="92">
         <f>Q83+1</f>
         <v>42132</v>
       </c>
-      <c r="W83" s="127" t="s">
+      <c r="W83" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="X83" s="127"/>
-      <c r="Y83" s="127"/>
-      <c r="Z83" s="127"/>
+      <c r="X83" s="130"/>
+      <c r="Y83" s="130"/>
+      <c r="Z83" s="130"/>
       <c r="AA83" s="9"/>
-      <c r="AB83" s="28"/>
-      <c r="AC83" s="28"/>
-      <c r="AD83" s="28"/>
-      <c r="AE83" s="28"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
     </row>
     <row r="84" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A84" s="102"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="106"/>
-      <c r="E84" s="158"/>
-      <c r="F84" s="159"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="158"/>
-      <c r="K84" s="159"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="N84" s="104"/>
-      <c r="O84" s="158"/>
-      <c r="P84" s="159"/>
-      <c r="Q84" s="89"/>
-      <c r="R84" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="S84" s="91"/>
-      <c r="T84" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="U84" s="91"/>
-      <c r="V84" s="89"/>
-      <c r="W84" s="127"/>
-      <c r="X84" s="127"/>
-      <c r="Y84" s="127"/>
-      <c r="Z84" s="127"/>
+      <c r="A84" s="105"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="109"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="172"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="171"/>
+      <c r="K84" s="172"/>
+      <c r="L84" s="92"/>
+      <c r="M84" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="N84" s="107"/>
+      <c r="O84" s="171"/>
+      <c r="P84" s="172"/>
+      <c r="Q84" s="92"/>
+      <c r="R84" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="S84" s="94"/>
+      <c r="T84" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U84" s="94"/>
+      <c r="V84" s="92"/>
+      <c r="W84" s="130"/>
+      <c r="X84" s="130"/>
+      <c r="Y84" s="130"/>
+      <c r="Z84" s="130"/>
       <c r="AA84" s="9"/>
-      <c r="AB84" s="239" t="s">
+      <c r="AB84" s="252" t="s">
         <v>44</v>
       </c>
-      <c r="AC84" s="240"/>
-      <c r="AD84" s="240"/>
-      <c r="AE84" s="241"/>
+      <c r="AC84" s="253"/>
+      <c r="AD84" s="253"/>
+      <c r="AE84" s="254"/>
     </row>
     <row r="85" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A85" s="102">
+      <c r="A85" s="105">
         <v>20</v>
       </c>
-      <c r="B85" s="89">
+      <c r="B85" s="92">
         <f>B83+7</f>
         <v>42135</v>
       </c>
@@ -7587,7 +8082,7 @@
       <c r="D85" s="21"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
-      <c r="G85" s="89">
+      <c r="G85" s="92">
         <f>B85+1</f>
         <v>42136</v>
       </c>
@@ -7595,7 +8090,7 @@
       <c r="I85" s="21"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
-      <c r="L85" s="89">
+      <c r="L85" s="92">
         <f>G85+1</f>
         <v>42137</v>
       </c>
@@ -7603,17 +8098,17 @@
       <c r="N85" s="21"/>
       <c r="O85" s="22"/>
       <c r="P85" s="22"/>
-      <c r="Q85" s="89">
+      <c r="Q85" s="92">
         <f>L85+1</f>
         <v>42138</v>
       </c>
-      <c r="R85" s="127" t="s">
+      <c r="R85" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="S85" s="127"/>
-      <c r="T85" s="127"/>
-      <c r="U85" s="127"/>
-      <c r="V85" s="89">
+      <c r="S85" s="130"/>
+      <c r="T85" s="130"/>
+      <c r="U85" s="130"/>
+      <c r="V85" s="92">
         <f>Q85+1</f>
         <v>42139</v>
       </c>
@@ -7622,182 +8117,182 @@
       <c r="Y85" s="22"/>
       <c r="Z85" s="22"/>
       <c r="AA85" s="20"/>
-      <c r="AB85" s="242"/>
-      <c r="AC85" s="243"/>
-      <c r="AD85" s="243"/>
-      <c r="AE85" s="244"/>
+      <c r="AB85" s="255"/>
+      <c r="AC85" s="256"/>
+      <c r="AD85" s="256"/>
+      <c r="AE85" s="257"/>
     </row>
     <row r="86" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A86" s="102"/>
-      <c r="B86" s="89"/>
+      <c r="A86" s="105"/>
+      <c r="B86" s="92"/>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
-      <c r="G86" s="89"/>
+      <c r="G86" s="92"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
-      <c r="L86" s="89"/>
+      <c r="L86" s="92"/>
       <c r="M86" s="21"/>
       <c r="N86" s="21"/>
       <c r="O86" s="22"/>
       <c r="P86" s="22"/>
-      <c r="Q86" s="89"/>
-      <c r="R86" s="127"/>
-      <c r="S86" s="127"/>
-      <c r="T86" s="127"/>
-      <c r="U86" s="127"/>
-      <c r="V86" s="89"/>
+      <c r="Q86" s="92"/>
+      <c r="R86" s="130"/>
+      <c r="S86" s="130"/>
+      <c r="T86" s="130"/>
+      <c r="U86" s="130"/>
+      <c r="V86" s="92"/>
       <c r="W86" s="21"/>
       <c r="X86" s="21"/>
       <c r="Y86" s="22"/>
       <c r="Z86" s="22"/>
       <c r="AA86" s="20"/>
-      <c r="AB86" s="233" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC86" s="234"/>
-      <c r="AD86" s="234"/>
-      <c r="AE86" s="235"/>
+      <c r="AB86" s="246" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC86" s="247"/>
+      <c r="AD86" s="247"/>
+      <c r="AE86" s="248"/>
     </row>
     <row r="87" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A87" s="116">
+      <c r="A87" s="119">
         <v>21</v>
       </c>
-      <c r="B87" s="89">
+      <c r="B87" s="92">
         <f>B85+7</f>
         <v>42142</v>
       </c>
-      <c r="C87" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="104"/>
-      <c r="E87" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" s="162" t="s">
-        <v>72</v>
-      </c>
-      <c r="G87" s="120">
+      <c r="C87" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="107"/>
+      <c r="E87" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="175" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="123">
         <f>B87+1</f>
         <v>42143</v>
       </c>
-      <c r="H87" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="I87" s="112"/>
-      <c r="J87" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="K87" s="114"/>
-      <c r="L87" s="89">
+      <c r="H87" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="I87" s="115"/>
+      <c r="J87" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="K87" s="117"/>
+      <c r="L87" s="92">
         <f>G87+1</f>
         <v>42144</v>
       </c>
-      <c r="M87" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="N87" s="106"/>
-      <c r="O87" s="156" t="s">
-        <v>126</v>
-      </c>
-      <c r="P87" s="157"/>
-      <c r="Q87" s="89">
+      <c r="M87" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="N87" s="109"/>
+      <c r="O87" s="169" t="s">
+        <v>118</v>
+      </c>
+      <c r="P87" s="170"/>
+      <c r="Q87" s="92">
         <f>L87+1</f>
         <v>42145</v>
       </c>
-      <c r="R87" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="S87" s="72"/>
-      <c r="T87" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="U87" s="157"/>
-      <c r="V87" s="89">
+      <c r="R87" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="S87" s="73"/>
+      <c r="T87" s="169" t="s">
+        <v>68</v>
+      </c>
+      <c r="U87" s="170"/>
+      <c r="V87" s="92">
         <f>Q87+1</f>
         <v>42146</v>
       </c>
-      <c r="W87" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="X87" s="91"/>
-      <c r="Y87" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z87" s="110"/>
+      <c r="W87" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="X87" s="94"/>
+      <c r="Y87" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z87" s="113"/>
       <c r="AA87" s="9"/>
-      <c r="AB87" s="236" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC87" s="237"/>
-      <c r="AD87" s="237"/>
-      <c r="AE87" s="238"/>
+      <c r="AB87" s="249" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC87" s="250"/>
+      <c r="AD87" s="250"/>
+      <c r="AE87" s="251"/>
     </row>
     <row r="88" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A88" s="116"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="106"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="163"/>
-      <c r="G88" s="121"/>
-      <c r="H88" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="I88" s="114"/>
-      <c r="J88" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="K88" s="112"/>
-      <c r="L88" s="89"/>
-      <c r="M88" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="N88" s="104"/>
-      <c r="O88" s="158"/>
-      <c r="P88" s="159"/>
-      <c r="Q88" s="89"/>
-      <c r="R88" s="73"/>
-      <c r="S88" s="74"/>
-      <c r="T88" s="158"/>
-      <c r="U88" s="159"/>
-      <c r="V88" s="89"/>
-      <c r="W88" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="X88" s="110"/>
-      <c r="Y88" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z88" s="91"/>
+      <c r="A88" s="119"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="109"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="176"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="I88" s="117"/>
+      <c r="J88" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="K88" s="115"/>
+      <c r="L88" s="92"/>
+      <c r="M88" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="N88" s="107"/>
+      <c r="O88" s="171"/>
+      <c r="P88" s="172"/>
+      <c r="Q88" s="92"/>
+      <c r="R88" s="74"/>
+      <c r="S88" s="75"/>
+      <c r="T88" s="171"/>
+      <c r="U88" s="172"/>
+      <c r="V88" s="92"/>
+      <c r="W88" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="X88" s="113"/>
+      <c r="Y88" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z88" s="94"/>
       <c r="AA88" s="9"/>
-      <c r="AB88" s="215" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC88" s="216"/>
-      <c r="AD88" s="216"/>
-      <c r="AE88" s="217"/>
+      <c r="AB88" s="228" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC88" s="229"/>
+      <c r="AD88" s="229"/>
+      <c r="AE88" s="230"/>
     </row>
     <row r="89" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A89" s="102">
+      <c r="A89" s="105">
         <v>22</v>
       </c>
-      <c r="B89" s="89">
+      <c r="B89" s="92">
         <f>B87+7</f>
         <v>42149</v>
       </c>
-      <c r="C89" s="127" t="s">
+      <c r="C89" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="89">
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="92">
         <f>B89+1</f>
         <v>42150</v>
       </c>
@@ -7805,7 +8300,7 @@
       <c r="I89" s="15"/>
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
-      <c r="L89" s="89">
+      <c r="L89" s="92">
         <f>G89+1</f>
         <v>42151</v>
       </c>
@@ -7813,7 +8308,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
-      <c r="Q89" s="89">
+      <c r="Q89" s="92">
         <f>L89+1</f>
         <v>42152</v>
       </c>
@@ -7821,7 +8316,7 @@
       <c r="S89" s="21"/>
       <c r="T89" s="22"/>
       <c r="U89" s="22"/>
-      <c r="V89" s="89">
+      <c r="V89" s="92">
         <f>Q89+1</f>
         <v>42153</v>
       </c>
@@ -7830,199 +8325,199 @@
       <c r="Y89" s="16"/>
       <c r="Z89" s="16"/>
       <c r="AA89" s="9"/>
-      <c r="AB89" s="218" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC89" s="219"/>
-      <c r="AD89" s="219"/>
-      <c r="AE89" s="220"/>
+      <c r="AB89" s="231" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC89" s="232"/>
+      <c r="AD89" s="232"/>
+      <c r="AE89" s="233"/>
     </row>
     <row r="90" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A90" s="102"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="89"/>
+      <c r="A90" s="105"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
+      <c r="G90" s="92"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
-      <c r="L90" s="89"/>
+      <c r="L90" s="92"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
-      <c r="Q90" s="89"/>
+      <c r="Q90" s="92"/>
       <c r="R90" s="21"/>
       <c r="S90" s="21"/>
       <c r="T90" s="22"/>
       <c r="U90" s="22"/>
-      <c r="V90" s="89"/>
+      <c r="V90" s="92"/>
       <c r="W90" s="15"/>
       <c r="X90" s="15"/>
       <c r="Y90" s="16"/>
       <c r="Z90" s="16"/>
       <c r="AA90" s="9"/>
-      <c r="AB90" s="35"/>
-      <c r="AC90" s="35"/>
-      <c r="AD90" s="35"/>
-      <c r="AE90" s="35"/>
+      <c r="AB90" s="34"/>
+      <c r="AC90" s="34"/>
+      <c r="AD90" s="34"/>
+      <c r="AE90" s="34"/>
     </row>
     <row r="91" spans="1:32" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A91" s="17"/>
-      <c r="B91" s="124" t="s">
+      <c r="B91" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="124"/>
-      <c r="G91" s="124"/>
-      <c r="H91" s="124"/>
-      <c r="I91" s="124"/>
-      <c r="J91" s="124"/>
-      <c r="K91" s="124"/>
-      <c r="L91" s="124"/>
-      <c r="M91" s="124"/>
-      <c r="N91" s="124"/>
-      <c r="O91" s="124"/>
-      <c r="P91" s="124"/>
-      <c r="Q91" s="124"/>
-      <c r="R91" s="124"/>
-      <c r="S91" s="124"/>
-      <c r="T91" s="124"/>
-      <c r="U91" s="124"/>
-      <c r="V91" s="124"/>
-      <c r="W91" s="124"/>
-      <c r="X91" s="124"/>
-      <c r="Y91" s="124"/>
-      <c r="Z91" s="124"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="127"/>
+      <c r="F91" s="127"/>
+      <c r="G91" s="127"/>
+      <c r="H91" s="127"/>
+      <c r="I91" s="127"/>
+      <c r="J91" s="127"/>
+      <c r="K91" s="127"/>
+      <c r="L91" s="127"/>
+      <c r="M91" s="127"/>
+      <c r="N91" s="127"/>
+      <c r="O91" s="127"/>
+      <c r="P91" s="127"/>
+      <c r="Q91" s="127"/>
+      <c r="R91" s="127"/>
+      <c r="S91" s="127"/>
+      <c r="T91" s="127"/>
+      <c r="U91" s="127"/>
+      <c r="V91" s="127"/>
+      <c r="W91" s="127"/>
+      <c r="X91" s="127"/>
+      <c r="Y91" s="127"/>
+      <c r="Z91" s="127"/>
       <c r="AA91" s="20"/>
-      <c r="AB91" s="35"/>
-      <c r="AC91" s="35"/>
-      <c r="AD91" s="35"/>
-      <c r="AE91" s="35"/>
+      <c r="AB91" s="34"/>
+      <c r="AC91" s="34"/>
+      <c r="AD91" s="34"/>
+      <c r="AE91" s="34"/>
     </row>
     <row r="92" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A92" s="116">
+      <c r="A92" s="119">
         <v>23</v>
       </c>
-      <c r="B92" s="89">
+      <c r="B92" s="92">
         <f>B89+7</f>
         <v>42156</v>
       </c>
-      <c r="C92" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="E92" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="F92" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="G92" s="89">
+      <c r="C92" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="92">
         <f>B92+1</f>
         <v>42157</v>
       </c>
-      <c r="H92" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="I92" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="J92" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="K92" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="L92" s="89">
+      <c r="H92" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="I92" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="J92" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="K92" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="L92" s="92">
         <f>G92+1</f>
         <v>42158</v>
       </c>
-      <c r="M92" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="N92" s="125"/>
-      <c r="O92" s="125"/>
-      <c r="P92" s="61"/>
-      <c r="Q92" s="89">
+      <c r="M92" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="N92" s="128"/>
+      <c r="O92" s="128"/>
+      <c r="P92" s="62"/>
+      <c r="Q92" s="92">
         <f>L92+1</f>
         <v>42159</v>
       </c>
-      <c r="R92" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="S92" s="125"/>
-      <c r="T92" s="125"/>
-      <c r="U92" s="61"/>
-      <c r="V92" s="89">
+      <c r="R92" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="S92" s="128"/>
+      <c r="T92" s="128"/>
+      <c r="U92" s="62"/>
+      <c r="V92" s="92">
         <f>Q92+1</f>
         <v>42160</v>
       </c>
-      <c r="W92" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="X92" s="125"/>
-      <c r="Y92" s="125"/>
-      <c r="Z92" s="61"/>
+      <c r="W92" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="X92" s="128"/>
+      <c r="Y92" s="128"/>
+      <c r="Z92" s="62"/>
       <c r="AA92" s="9"/>
-      <c r="AB92" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC92" s="25"/>
-      <c r="AD92" s="25"/>
-      <c r="AE92" s="25"/>
+      <c r="AB92" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC92" s="24"/>
+      <c r="AD92" s="24"/>
+      <c r="AE92" s="24"/>
     </row>
     <row r="93" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A93" s="116"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="153"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="76"/>
-      <c r="I93" s="70"/>
-      <c r="J93" s="76"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="89"/>
-      <c r="M93" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="N93" s="126"/>
-      <c r="O93" s="126"/>
-      <c r="P93" s="114"/>
-      <c r="Q93" s="89"/>
-      <c r="R93" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="S93" s="126"/>
-      <c r="T93" s="126"/>
-      <c r="U93" s="114"/>
-      <c r="V93" s="89"/>
-      <c r="W93" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="X93" s="126"/>
-      <c r="Y93" s="126"/>
-      <c r="Z93" s="114"/>
+      <c r="A93" s="119"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="160"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="92"/>
+      <c r="M93" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="N93" s="129"/>
+      <c r="O93" s="129"/>
+      <c r="P93" s="117"/>
+      <c r="Q93" s="92"/>
+      <c r="R93" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="S93" s="129"/>
+      <c r="T93" s="129"/>
+      <c r="U93" s="117"/>
+      <c r="V93" s="92"/>
+      <c r="W93" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="X93" s="129"/>
+      <c r="Y93" s="129"/>
+      <c r="Z93" s="117"/>
       <c r="AA93" s="9"/>
-      <c r="AB93" s="25"/>
-      <c r="AC93" s="25"/>
-      <c r="AD93" s="25"/>
-      <c r="AE93" s="25"/>
+      <c r="AB93" s="24"/>
+      <c r="AC93" s="24"/>
+      <c r="AD93" s="24"/>
+      <c r="AE93" s="24"/>
     </row>
     <row r="94" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A94" s="102">
+      <c r="A94" s="105">
         <v>24</v>
       </c>
-      <c r="B94" s="89">
+      <c r="B94" s="92">
         <f>B92+7</f>
         <v>42163</v>
       </c>
@@ -8030,7 +8525,7 @@
       <c r="D94" s="21"/>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
-      <c r="G94" s="89">
+      <c r="G94" s="92">
         <f>B94+1</f>
         <v>42164</v>
       </c>
@@ -8038,7 +8533,7 @@
       <c r="I94" s="21"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
-      <c r="L94" s="89">
+      <c r="L94" s="92">
         <f>G94+1</f>
         <v>42165</v>
       </c>
@@ -8046,7 +8541,7 @@
       <c r="N94" s="21"/>
       <c r="O94" s="22"/>
       <c r="P94" s="22"/>
-      <c r="Q94" s="89">
+      <c r="Q94" s="92">
         <f>L94+1</f>
         <v>42166</v>
       </c>
@@ -8054,7 +8549,7 @@
       <c r="S94" s="21"/>
       <c r="T94" s="22"/>
       <c r="U94" s="22"/>
-      <c r="V94" s="89">
+      <c r="V94" s="92">
         <f>Q94+1</f>
         <v>42167</v>
       </c>
@@ -8065,28 +8560,28 @@
       <c r="AA94" s="9"/>
     </row>
     <row r="95" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A95" s="102"/>
-      <c r="B95" s="89"/>
+      <c r="A95" s="105"/>
+      <c r="B95" s="92"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
-      <c r="G95" s="89"/>
+      <c r="G95" s="92"/>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
-      <c r="L95" s="89"/>
+      <c r="L95" s="92"/>
       <c r="M95" s="21"/>
       <c r="N95" s="21"/>
       <c r="O95" s="22"/>
       <c r="P95" s="22"/>
-      <c r="Q95" s="89"/>
+      <c r="Q95" s="92"/>
       <c r="R95" s="21"/>
       <c r="S95" s="21"/>
       <c r="T95" s="22"/>
       <c r="U95" s="22"/>
-      <c r="V95" s="89"/>
+      <c r="V95" s="92"/>
       <c r="W95" s="21"/>
       <c r="X95" s="21"/>
       <c r="Y95" s="22"/>
@@ -8094,113 +8589,113 @@
       <c r="AA95" s="9"/>
     </row>
     <row r="96" spans="1:32" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A96" s="117">
+      <c r="A96" s="120">
         <v>25</v>
       </c>
-      <c r="B96" s="89">
+      <c r="B96" s="92">
         <f>B94+7</f>
         <v>42170</v>
       </c>
-      <c r="C96" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="126"/>
-      <c r="E96" s="126"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="89">
+      <c r="C96" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="129"/>
+      <c r="E96" s="129"/>
+      <c r="F96" s="117"/>
+      <c r="G96" s="92">
         <f>B96+1</f>
         <v>42171</v>
       </c>
-      <c r="H96" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="I96" s="126"/>
-      <c r="J96" s="126"/>
-      <c r="K96" s="114"/>
-      <c r="L96" s="89">
+      <c r="H96" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="I96" s="129"/>
+      <c r="J96" s="129"/>
+      <c r="K96" s="117"/>
+      <c r="L96" s="92">
         <f>G96+1</f>
         <v>42172</v>
       </c>
-      <c r="M96" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="N96" s="126"/>
-      <c r="O96" s="126"/>
-      <c r="P96" s="114"/>
-      <c r="Q96" s="89">
+      <c r="M96" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="N96" s="129"/>
+      <c r="O96" s="129"/>
+      <c r="P96" s="117"/>
+      <c r="Q96" s="92">
         <f>L96+1</f>
         <v>42173</v>
       </c>
-      <c r="R96" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="S96" s="164"/>
-      <c r="T96" s="164"/>
-      <c r="U96" s="80"/>
-      <c r="V96" s="89">
+      <c r="R96" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="S96" s="177"/>
+      <c r="T96" s="177"/>
+      <c r="U96" s="83"/>
+      <c r="V96" s="92">
         <f>Q96+1</f>
         <v>42174</v>
       </c>
-      <c r="W96" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="X96" s="69" t="s">
+      <c r="W96" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="X96" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y96" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="Y96" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z96" s="83" t="s">
-        <v>57</v>
+      <c r="Z96" s="131" t="s">
+        <v>55</v>
       </c>
       <c r="AA96" s="20"/>
     </row>
     <row r="97" spans="1:31" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A97" s="117"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" s="125"/>
-      <c r="E97" s="125"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="89"/>
-      <c r="H97" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="I97" s="125"/>
-      <c r="J97" s="125"/>
-      <c r="K97" s="61"/>
-      <c r="L97" s="89"/>
-      <c r="M97" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="N97" s="125"/>
-      <c r="O97" s="125"/>
-      <c r="P97" s="61"/>
-      <c r="Q97" s="89"/>
-      <c r="R97" s="81"/>
-      <c r="S97" s="165"/>
-      <c r="T97" s="165"/>
-      <c r="U97" s="82"/>
-      <c r="V97" s="89"/>
-      <c r="W97" s="76"/>
-      <c r="X97" s="70"/>
-      <c r="Y97" s="70"/>
-      <c r="Z97" s="84"/>
+      <c r="A97" s="120"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="128"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="I97" s="128"/>
+      <c r="J97" s="128"/>
+      <c r="K97" s="62"/>
+      <c r="L97" s="92"/>
+      <c r="M97" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="N97" s="128"/>
+      <c r="O97" s="128"/>
+      <c r="P97" s="62"/>
+      <c r="Q97" s="92"/>
+      <c r="R97" s="84"/>
+      <c r="S97" s="178"/>
+      <c r="T97" s="178"/>
+      <c r="U97" s="85"/>
+      <c r="V97" s="92"/>
+      <c r="W97" s="77"/>
+      <c r="X97" s="79"/>
+      <c r="Y97" s="79"/>
+      <c r="Z97" s="132"/>
       <c r="AA97" s="20"/>
-      <c r="AB97" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC97" s="48"/>
-      <c r="AD97" s="48"/>
-      <c r="AE97" s="49"/>
+      <c r="AB97" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC97" s="49"/>
+      <c r="AD97" s="49"/>
+      <c r="AE97" s="50"/>
     </row>
     <row r="98" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A98" s="102">
+      <c r="A98" s="105">
         <v>26</v>
       </c>
-      <c r="B98" s="89">
+      <c r="B98" s="92">
         <f>B96+7</f>
         <v>42177</v>
       </c>
@@ -8208,7 +8703,7 @@
       <c r="D98" s="21"/>
       <c r="E98" s="22"/>
       <c r="F98" s="22"/>
-      <c r="G98" s="89">
+      <c r="G98" s="92">
         <f>B98+1</f>
         <v>42178</v>
       </c>
@@ -8216,7 +8711,7 @@
       <c r="I98" s="21"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22"/>
-      <c r="L98" s="89">
+      <c r="L98" s="92">
         <f>G98+1</f>
         <v>42179</v>
       </c>
@@ -8224,7 +8719,7 @@
       <c r="N98" s="21"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
-      <c r="Q98" s="89">
+      <c r="Q98" s="92">
         <f>L98+1</f>
         <v>42180</v>
       </c>
@@ -8232,7 +8727,7 @@
       <c r="S98" s="21"/>
       <c r="T98" s="22"/>
       <c r="U98" s="22"/>
-      <c r="V98" s="89">
+      <c r="V98" s="92">
         <f>Q98+1</f>
         <v>42181</v>
       </c>
@@ -8241,77 +8736,77 @@
       <c r="Y98" s="22"/>
       <c r="Z98" s="22"/>
       <c r="AA98" s="9"/>
-      <c r="AB98" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC98" s="51"/>
-      <c r="AD98" s="51"/>
-      <c r="AE98" s="52"/>
+      <c r="AB98" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC98" s="52"/>
+      <c r="AD98" s="52"/>
+      <c r="AE98" s="53"/>
     </row>
     <row r="99" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A99" s="102"/>
-      <c r="B99" s="89"/>
+      <c r="A99" s="105"/>
+      <c r="B99" s="92"/>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
-      <c r="G99" s="89"/>
+      <c r="G99" s="92"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
-      <c r="L99" s="89"/>
+      <c r="L99" s="92"/>
       <c r="M99" s="21"/>
       <c r="N99" s="21"/>
       <c r="O99" s="22"/>
       <c r="P99" s="22"/>
-      <c r="Q99" s="89"/>
+      <c r="Q99" s="92"/>
       <c r="R99" s="21"/>
       <c r="S99" s="21"/>
       <c r="T99" s="22"/>
       <c r="U99" s="22"/>
-      <c r="V99" s="89"/>
+      <c r="V99" s="92"/>
       <c r="W99" s="21"/>
       <c r="X99" s="21"/>
       <c r="Y99" s="22"/>
       <c r="Z99" s="22"/>
       <c r="AA99" s="9"/>
-      <c r="AB99" s="53" t="s">
+      <c r="AB99" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AC99" s="54"/>
-      <c r="AD99" s="54"/>
-      <c r="AE99" s="55"/>
+      <c r="AC99" s="55"/>
+      <c r="AD99" s="55"/>
+      <c r="AE99" s="56"/>
     </row>
     <row r="100" spans="1:31" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A100" s="17"/>
-      <c r="B100" s="124" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" s="124"/>
-      <c r="D100" s="124"/>
-      <c r="E100" s="124"/>
-      <c r="F100" s="124"/>
-      <c r="G100" s="124"/>
-      <c r="H100" s="124"/>
-      <c r="I100" s="124"/>
-      <c r="J100" s="124"/>
-      <c r="K100" s="124"/>
-      <c r="L100" s="124"/>
-      <c r="M100" s="124"/>
-      <c r="N100" s="124"/>
-      <c r="O100" s="124"/>
-      <c r="P100" s="124"/>
-      <c r="Q100" s="124"/>
-      <c r="R100" s="124"/>
-      <c r="S100" s="124"/>
-      <c r="T100" s="124"/>
-      <c r="U100" s="124"/>
-      <c r="V100" s="124"/>
-      <c r="W100" s="124"/>
-      <c r="X100" s="124"/>
-      <c r="Y100" s="124"/>
-      <c r="Z100" s="124"/>
+      <c r="B100" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="127"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="127"/>
+      <c r="I100" s="127"/>
+      <c r="J100" s="127"/>
+      <c r="K100" s="127"/>
+      <c r="L100" s="127"/>
+      <c r="M100" s="127"/>
+      <c r="N100" s="127"/>
+      <c r="O100" s="127"/>
+      <c r="P100" s="127"/>
+      <c r="Q100" s="127"/>
+      <c r="R100" s="127"/>
+      <c r="S100" s="127"/>
+      <c r="T100" s="127"/>
+      <c r="U100" s="127"/>
+      <c r="V100" s="127"/>
+      <c r="W100" s="127"/>
+      <c r="X100" s="127"/>
+      <c r="Y100" s="127"/>
+      <c r="Z100" s="127"/>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
@@ -8333,32 +8828,32 @@
         <f>B101+1</f>
         <v>41876</v>
       </c>
-      <c r="H101" s="119" t="s">
+      <c r="H101" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I101" s="119"/>
-      <c r="J101" s="119"/>
-      <c r="K101" s="119"/>
+      <c r="I101" s="122"/>
+      <c r="J101" s="122"/>
+      <c r="K101" s="122"/>
       <c r="L101" s="19">
         <f>G101+1</f>
         <v>41877</v>
       </c>
-      <c r="M101" s="119" t="s">
+      <c r="M101" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="N101" s="119"/>
-      <c r="O101" s="119"/>
-      <c r="P101" s="119"/>
+      <c r="N101" s="122"/>
+      <c r="O101" s="122"/>
+      <c r="P101" s="122"/>
       <c r="Q101" s="19">
         <f>L101+1</f>
         <v>41878</v>
       </c>
-      <c r="R101" s="119" t="s">
+      <c r="R101" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="S101" s="119"/>
-      <c r="T101" s="119"/>
-      <c r="U101" s="119"/>
+      <c r="S101" s="122"/>
+      <c r="T101" s="122"/>
+      <c r="U101" s="122"/>
       <c r="V101" s="19">
         <f>Q101+1</f>
         <v>41879</v>
@@ -9303,7 +9798,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"Arial,Gras"&amp;14CPE LYON
 Cursus ingénieur en alternance IRC - En partenariat avec l'ITII de Lyon&amp;R&amp;"Arial,Gras"&amp;14Promotion 1417

--- a/files/3irc.xlsx
+++ b/files/3irc.xlsx
@@ -345,7 +345,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>10h30-12h30</t>
         </r>
@@ -357,7 +357,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-C223 (Audigier à Eyraud)
+C223(Audigier à Eyraud)
 G102 (Flaman à Verot)</t>
         </r>
       </text>
@@ -1615,7 +1615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="196">
   <si>
     <t>LUNDI</t>
   </si>
@@ -2178,25 +2178,43 @@
     <t>Analyse : B-09</t>
   </si>
   <si>
+    <t>10h30-12h30 Alg.Lin. : G102+C223</t>
+  </si>
+  <si>
+    <t>TP CGR : G105</t>
+  </si>
+  <si>
+    <t>TP CGR : G108</t>
+  </si>
+  <si>
     <t>TP : B216</t>
   </si>
   <si>
+    <t>TP : B217</t>
+  </si>
+  <si>
     <t>TP Archi : B216</t>
   </si>
   <si>
     <t>TP Archi : B217</t>
   </si>
   <si>
-    <t>TP : B217</t>
-  </si>
-  <si>
-    <t>10h30-12h30 Alg.Lin. : G102+C223</t>
-  </si>
-  <si>
-    <t>TP CGR : G105</t>
-  </si>
-  <si>
-    <t>TP CGR : G108</t>
+    <t xml:space="preserve"> CGR : G102</t>
+  </si>
+  <si>
+    <t>TD : G102</t>
+  </si>
+  <si>
+    <t>TD : E109</t>
+  </si>
+  <si>
+    <t>Anglais : F101-F102-G109-E109</t>
+  </si>
+  <si>
+    <t>TP Archi : B120-C222</t>
+  </si>
+  <si>
+    <t>Analyse : G105</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2314,6 +2332,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -3593,16 +3618,16 @@
     <xf numFmtId="49" fontId="8" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3957,8 +3982,8 @@
   </sheetPr>
   <dimension ref="A1:AF142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4373,12 +4398,12 @@
         <f>V7+7</f>
         <v>41901</v>
       </c>
-      <c r="W9" s="272" t="s">
+      <c r="W9" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="X9" s="272"/>
-      <c r="Y9" s="272"/>
-      <c r="Z9" s="272"/>
+      <c r="X9" s="274"/>
+      <c r="Y9" s="274"/>
+      <c r="Z9" s="274"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="127" t="s">
         <v>33</v>
@@ -4422,10 +4447,10 @@
       </c>
       <c r="U10" s="244"/>
       <c r="V10" s="155"/>
-      <c r="W10" s="272"/>
-      <c r="X10" s="272"/>
-      <c r="Y10" s="272"/>
-      <c r="Z10" s="272"/>
+      <c r="W10" s="274"/>
+      <c r="X10" s="274"/>
+      <c r="Y10" s="274"/>
+      <c r="Z10" s="274"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
@@ -4952,7 +4977,7 @@
       <c r="AD21" s="85"/>
       <c r="AE21" s="86"/>
     </row>
-    <row r="22" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="22" spans="1:31" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="245" t="s">
         <v>12</v>
@@ -5200,7 +5225,7 @@
       <c r="AD26" s="149"/>
       <c r="AE26" s="150"/>
     </row>
-    <row r="27" spans="1:31" ht="13.5" customHeight="1">
+    <row r="27" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A27" s="232">
         <v>46</v>
       </c>
@@ -5216,12 +5241,12 @@
         <f>G25+7</f>
         <v>41954</v>
       </c>
-      <c r="H27" s="273" t="s">
+      <c r="H27" s="275" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="273"/>
-      <c r="J27" s="273"/>
-      <c r="K27" s="273"/>
+      <c r="I27" s="275"/>
+      <c r="J27" s="275"/>
+      <c r="K27" s="275"/>
       <c r="L27" s="155">
         <f>G27+1</f>
         <v>41955</v>
@@ -5248,7 +5273,7 @@
       <c r="Z27" s="22"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
+    <row r="28" spans="1:31" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="232"/>
       <c r="B28" s="155"/>
       <c r="C28" s="22"/>
@@ -5256,10 +5281,10 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="155"/>
-      <c r="H28" s="273"/>
-      <c r="I28" s="273"/>
-      <c r="J28" s="273"/>
-      <c r="K28" s="273"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="275"/>
+      <c r="J28" s="275"/>
+      <c r="K28" s="275"/>
       <c r="L28" s="155"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
@@ -5277,7 +5302,7 @@
       <c r="Z28" s="22"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:31" ht="13.5" customHeight="1">
+    <row r="29" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A29" s="260">
         <v>47</v>
       </c>
@@ -5292,7 +5317,7 @@
         <v>171</v>
       </c>
       <c r="E29" s="206" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F29" s="207"/>
       <c r="G29" s="155">
@@ -5303,10 +5328,10 @@
         <v>178</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J29" s="44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K29" s="45"/>
       <c r="L29" s="155">
@@ -5317,7 +5342,7 @@
         <v>179</v>
       </c>
       <c r="N29" s="287" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O29" s="169" t="s">
         <v>180</v>
@@ -5355,22 +5380,22 @@
       <c r="AD29" s="82"/>
       <c r="AE29" s="83"/>
     </row>
-    <row r="30" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
+    <row r="30" spans="1:31" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="260"/>
       <c r="B30" s="155"/>
       <c r="C30" s="269"/>
       <c r="D30" s="208"/>
-      <c r="E30" s="208" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="209"/>
+      <c r="E30" s="206" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="207"/>
       <c r="G30" s="155"/>
       <c r="H30" s="47"/>
       <c r="I30" s="37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J30" s="44" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K30" s="45"/>
       <c r="L30" s="155"/>
@@ -5402,7 +5427,7 @@
       <c r="AD30" s="85"/>
       <c r="AE30" s="86"/>
     </row>
-    <row r="31" spans="1:31" ht="13.5" customHeight="1">
+    <row r="31" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A31" s="232">
         <v>48</v>
       </c>
@@ -5448,7 +5473,7 @@
       <c r="Z31" s="22"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:31" ht="13.5" customHeight="1">
+    <row r="32" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A32" s="232"/>
       <c r="B32" s="155"/>
       <c r="C32" s="21"/>
@@ -5526,13 +5551,13 @@
         <v>41974</v>
       </c>
       <c r="C34" s="268" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="D34" s="206" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="E34" s="206" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="F34" s="207"/>
       <c r="G34" s="155">
@@ -5540,13 +5565,13 @@
         <v>41975</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="K34" s="45"/>
       <c r="L34" s="155">
@@ -5554,11 +5579,11 @@
         <v>41976</v>
       </c>
       <c r="M34" s="184" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="N34" s="186"/>
       <c r="O34" s="169" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="P34" s="170"/>
       <c r="Q34" s="155">
@@ -5566,11 +5591,11 @@
         <v>41977</v>
       </c>
       <c r="R34" s="219" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="S34" s="220"/>
       <c r="T34" s="221" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="U34" s="222"/>
       <c r="V34" s="155">
@@ -5598,15 +5623,17 @@
       <c r="B35" s="155"/>
       <c r="C35" s="269"/>
       <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="E35" s="206" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="207"/>
       <c r="G35" s="155"/>
       <c r="H35" s="47"/>
       <c r="I35" s="36" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="J35" s="44" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="K35" s="45"/>
       <c r="L35" s="155"/>
@@ -5616,11 +5643,11 @@
       <c r="P35" s="172"/>
       <c r="Q35" s="155"/>
       <c r="R35" s="221" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="S35" s="222"/>
       <c r="T35" s="219" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="U35" s="220"/>
       <c r="V35" s="155"/>
@@ -5763,10 +5790,10 @@
         <f>G38+1</f>
         <v>41990</v>
       </c>
-      <c r="M38" s="274" t="s">
-        <v>106</v>
-      </c>
-      <c r="N38" s="275"/>
+      <c r="M38" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="N38" s="45"/>
       <c r="O38" s="169" t="s">
         <v>125</v>
       </c>
@@ -5787,10 +5814,10 @@
         <f>Q38+1</f>
         <v>41992</v>
       </c>
-      <c r="W38" s="274" t="s">
+      <c r="W38" s="272" t="s">
         <v>106</v>
       </c>
-      <c r="X38" s="275"/>
+      <c r="X38" s="273"/>
       <c r="Y38" s="226" t="s">
         <v>108</v>
       </c>
@@ -5820,10 +5847,10 @@
       </c>
       <c r="K39" s="45"/>
       <c r="L39" s="160"/>
-      <c r="M39" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="N39" s="45"/>
+      <c r="M39" s="272" t="s">
+        <v>106</v>
+      </c>
+      <c r="N39" s="273"/>
       <c r="O39" s="171"/>
       <c r="P39" s="172"/>
       <c r="Q39" s="160"/>
@@ -5888,12 +5915,12 @@
         <f>L40+1</f>
         <v>41998</v>
       </c>
-      <c r="R40" s="273" t="s">
+      <c r="R40" s="275" t="s">
         <v>36</v>
       </c>
-      <c r="S40" s="273"/>
-      <c r="T40" s="273"/>
-      <c r="U40" s="273"/>
+      <c r="S40" s="275"/>
+      <c r="T40" s="275"/>
+      <c r="U40" s="275"/>
       <c r="V40" s="155">
         <f>Q40+1</f>
         <v>41999</v>
@@ -5930,10 +5957,10 @@
       <c r="O41" s="162"/>
       <c r="P41" s="162"/>
       <c r="Q41" s="155"/>
-      <c r="R41" s="273"/>
-      <c r="S41" s="273"/>
-      <c r="T41" s="273"/>
-      <c r="U41" s="273"/>
+      <c r="R41" s="275"/>
+      <c r="S41" s="275"/>
+      <c r="T41" s="275"/>
+      <c r="U41" s="275"/>
       <c r="V41" s="155"/>
       <c r="W41" s="162"/>
       <c r="X41" s="162"/>
@@ -6020,12 +6047,12 @@
         <f>L43+1</f>
         <v>42005</v>
       </c>
-      <c r="R43" s="273" t="s">
+      <c r="R43" s="275" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="273"/>
-      <c r="T43" s="273"/>
-      <c r="U43" s="273"/>
+      <c r="S43" s="275"/>
+      <c r="T43" s="275"/>
+      <c r="U43" s="275"/>
       <c r="V43" s="160">
         <f>Q43+1</f>
         <v>42006</v>
@@ -6062,10 +6089,10 @@
       <c r="O44" s="162"/>
       <c r="P44" s="162"/>
       <c r="Q44" s="160"/>
-      <c r="R44" s="273"/>
-      <c r="S44" s="273"/>
-      <c r="T44" s="273"/>
-      <c r="U44" s="273"/>
+      <c r="R44" s="275"/>
+      <c r="S44" s="275"/>
+      <c r="T44" s="275"/>
+      <c r="U44" s="275"/>
       <c r="V44" s="160"/>
       <c r="W44" s="162"/>
       <c r="X44" s="162"/>
@@ -9107,12 +9134,7 @@
       <c r="U142" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="663">
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H34:H35"/>
+  <mergeCells count="664">
     <mergeCell ref="AB97:AE97"/>
     <mergeCell ref="AB98:AE98"/>
     <mergeCell ref="AB99:AE99"/>
@@ -9131,7 +9153,6 @@
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O34:P35"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="F25:F26"/>
@@ -9140,11 +9161,12 @@
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H34:H35"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="W25:X25"/>
@@ -9156,7 +9178,7 @@
     <mergeCell ref="H27:K28"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="R40:U41"/>
+    <mergeCell ref="O34:P35"/>
     <mergeCell ref="R43:U44"/>
     <mergeCell ref="Y47:Z48"/>
     <mergeCell ref="Y29:Z29"/>
@@ -9168,6 +9190,10 @@
     <mergeCell ref="T61:U62"/>
     <mergeCell ref="W39:X39"/>
     <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y25:Z25"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="V11:V12"/>
@@ -9181,6 +9207,8 @@
     <mergeCell ref="Y7:Z8"/>
     <mergeCell ref="W23:Z24"/>
     <mergeCell ref="R23:U24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Y26:Z26"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="G49:G50"/>
@@ -9204,7 +9232,7 @@
     <mergeCell ref="W47:X48"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="R40:U41"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="G61:G62"/>
